--- a/data/dados_plantas.xlsx
+++ b/data/dados_plantas.xlsx
@@ -1,21 +1,728 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\UFSC\Publications\NEPEM\RBAS\69rbras21seagro\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D04F6D-8311-4159-87B7-409C4C825AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="232">
+  <si>
+    <t>UNIQUE_ID</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>GEN</t>
+  </si>
+  <si>
+    <t>PLANTA</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>MMG</t>
+  </si>
+  <si>
+    <t>ICC</t>
+  </si>
+  <si>
+    <t>BLOCK</t>
+  </si>
+  <si>
+    <t>CHECKS</t>
+  </si>
+  <si>
+    <t>127d373f-7c63-46b0-a8b2-7a5603af03de</t>
+  </si>
+  <si>
+    <t>MARROM</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>849dd821-d404-4165-abf5-1ed8eaf798fd</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>0ae6225f-2f07-493f-95fe-e4269cbdad04</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>9fd50ac6-f5ed-416d-8eee-c60ae2fd8d9b</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>59b5023b-6694-4262-9e10-760d32468d1c</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>105be11d-bc57-45a7-9ddf-da6de530202d</t>
+  </si>
+  <si>
+    <t>07502ed0-31b6-49da-be09-fc57b6b7a3ac</t>
+  </si>
+  <si>
+    <t>a57b4bc2-61ff-4edc-a50b-c99145451e0d</t>
+  </si>
+  <si>
+    <t>742707f0-22a2-4d91-8b9a-131739f74ac4</t>
+  </si>
+  <si>
+    <t>G74</t>
+  </si>
+  <si>
+    <t>db3cb496-902d-4d7e-b915-9440b35d58a7</t>
+  </si>
+  <si>
+    <t>bd30f147-641d-4e22-a47a-504c6fffee65</t>
+  </si>
+  <si>
+    <t>5d46b89e-55ba-488d-9943-72fee6d7703b</t>
+  </si>
+  <si>
+    <t>38f39dec-89a3-489b-9ed6-5f6aec003db2</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>851063ef-17df-41de-bb97-9a7756f47bf2</t>
+  </si>
+  <si>
+    <t>d1df954f-2df9-4ad1-b603-211c1af02a4d</t>
+  </si>
+  <si>
+    <t>2bd6eeee-17d9-404d-8773-5d57e58f64ed</t>
+  </si>
+  <si>
+    <t>a9b13442-b0f1-4a57-a9ca-67633f28fb32</t>
+  </si>
+  <si>
+    <t>G205</t>
+  </si>
+  <si>
+    <t>9b8c1000-1a2a-4595-8bff-455cedac64af</t>
+  </si>
+  <si>
+    <t>c1ccf360-ef4e-4593-b7c0-5477f4e2aaac</t>
+  </si>
+  <si>
+    <t>7e1b2853-e6f9-42fb-ab72-6613200f5d61</t>
+  </si>
+  <si>
+    <t>6ab11a67-acdf-45cb-a137-512a54c1b186</t>
+  </si>
+  <si>
+    <t>f6ccd2b8-cd96-4a19-83d8-4dc55e1d60e3</t>
+  </si>
+  <si>
+    <t>5fecda17-4962-4993-9b1b-53fcc63f9817</t>
+  </si>
+  <si>
+    <t>47f05708-a8f2-4969-a004-74d5513911a3</t>
+  </si>
+  <si>
+    <t>0ed81196-d1a7-43a3-931e-fe89b9900d69</t>
+  </si>
+  <si>
+    <t>DOURADA</t>
+  </si>
+  <si>
+    <t>G23</t>
+  </si>
+  <si>
+    <t>b9c3505d-9a95-4157-9b50-ac1d46f6c2af</t>
+  </si>
+  <si>
+    <t>4dfccab2-1131-45b5-b7c9-4b0b1b4351b5</t>
+  </si>
+  <si>
+    <t>47392d1a-9acc-4f92-a822-a7dddbb8d14b</t>
+  </si>
+  <si>
+    <t>92bff4c7-2c97-4e17-b12a-782c31f9ad7f</t>
+  </si>
+  <si>
+    <t>ST_PIONEIRA</t>
+  </si>
+  <si>
+    <t>8ff43058-f7f3-4bec-acff-9feabd9eaddd</t>
+  </si>
+  <si>
+    <t>45c21bbc-e263-4b31-a986-a2306d2e3f8a</t>
+  </si>
+  <si>
+    <t>9da02a71-c64b-42e4-8767-98211ecf957f</t>
+  </si>
+  <si>
+    <t>8dae31df-8b4f-48f1-96dd-ac8e584fdd1b</t>
+  </si>
+  <si>
+    <t>G141</t>
+  </si>
+  <si>
+    <t>e4cbd996-ee16-4956-8b9b-c661e6a332f3</t>
+  </si>
+  <si>
+    <t>9deadf98-c274-4c3c-8412-9fa0a7b31821</t>
+  </si>
+  <si>
+    <t>10eebf5a-614e-45bc-9a7a-b516ab1a5d75</t>
+  </si>
+  <si>
+    <t>1d3d59fe-b2be-4b3a-9591-23f0e8fc3050</t>
+  </si>
+  <si>
+    <t>G216</t>
+  </si>
+  <si>
+    <t>1a7003e4-9875-4ea8-a997-72e2aac9609f</t>
+  </si>
+  <si>
+    <t>bc42e6a1-1c22-4a79-bba4-6aad5a666e7b</t>
+  </si>
+  <si>
+    <t>c9a3475a-b931-465d-87e6-2814b2c59205</t>
+  </si>
+  <si>
+    <t>44bb388c-7ff4-40cc-a445-09c5e79d21ea</t>
+  </si>
+  <si>
+    <t>G37</t>
+  </si>
+  <si>
+    <t>c16edbdb-a379-4994-ba83-e726dc948ead</t>
+  </si>
+  <si>
+    <t>0903e258-77a9-40a4-986b-23aa65810dbf</t>
+  </si>
+  <si>
+    <t>47740a1d-6142-4e6e-98ab-5cc47bd6b398</t>
+  </si>
+  <si>
+    <t>3d7da214-4fb3-47a6-9537-94594c2d5ec9</t>
+  </si>
+  <si>
+    <t>G93</t>
+  </si>
+  <si>
+    <t>35a69e68-c103-4434-a297-de5d734c0efc</t>
+  </si>
+  <si>
+    <t>ddd5b04b-6924-4268-b658-4e4588e7aeda</t>
+  </si>
+  <si>
+    <t>65811f97-bc7b-417a-901e-aa7d9860d747</t>
+  </si>
+  <si>
+    <t>3b8afc6f-1d77-4a5a-94c6-f711db3ddeba</t>
+  </si>
+  <si>
+    <t>G145</t>
+  </si>
+  <si>
+    <t>6f1c0231-ba12-472d-bd0a-fa505aa84563</t>
+  </si>
+  <si>
+    <t>9cfb5cf6-87e6-4705-9d28-bb8e316a3809</t>
+  </si>
+  <si>
+    <t>e4462bc2-8668-4534-a977-3d85193c5579</t>
+  </si>
+  <si>
+    <t>96d9b6a5-a242-4c98-91e8-2cc5958b28f6</t>
+  </si>
+  <si>
+    <t>07e8fdca-1759-40bc-8980-7f4d1e615fdf</t>
+  </si>
+  <si>
+    <t>d66527d4-a65d-4bbf-a0c5-8e517fa3326f</t>
+  </si>
+  <si>
+    <t>5ae8b265-9e47-4b8e-8188-add077c06ceb</t>
+  </si>
+  <si>
+    <t>9bdadeba-444a-4e16-9a7b-ebf19178f334</t>
+  </si>
+  <si>
+    <t>G13</t>
+  </si>
+  <si>
+    <t>abda3ff9-4cb3-4ede-9a83-99032913da85</t>
+  </si>
+  <si>
+    <t>17f03f9a-c88a-4f9f-817d-a79d3d9d80d0</t>
+  </si>
+  <si>
+    <t>8ff14fb7-245b-4609-b34e-0bdcb532a7b5</t>
+  </si>
+  <si>
+    <t>48c88557-e89a-4c05-abb0-e2e6a92c1e10</t>
+  </si>
+  <si>
+    <t>G54</t>
+  </si>
+  <si>
+    <t>f29902e4-bb90-4664-9f28-d4cfec09b374</t>
+  </si>
+  <si>
+    <t>6d40d5e9-1f86-4c3b-bfc6-8031c52bd804</t>
+  </si>
+  <si>
+    <t>f571ad10-d7f9-4bbc-b12d-9f55d1d61e0a</t>
+  </si>
+  <si>
+    <t>b8ad5dc6-8ace-4657-9ad7-8e08dd1ba2e3</t>
+  </si>
+  <si>
+    <t>G215</t>
+  </si>
+  <si>
+    <t>4a687771-5efe-4d17-b2d9-dcec925b2303</t>
+  </si>
+  <si>
+    <t>fca71a29-7f44-4d44-86b5-eb93cd9d9b52</t>
+  </si>
+  <si>
+    <t>99b9abff-751f-496e-916c-86fddfac881a</t>
+  </si>
+  <si>
+    <t>87684dce-9c66-4e06-a54a-c40d621510b8</t>
+  </si>
+  <si>
+    <t>G84</t>
+  </si>
+  <si>
+    <t>0362d56c-3c3f-4be5-84e7-d1f88a24c2ed</t>
+  </si>
+  <si>
+    <t>e4c7ba4a-fb80-44c8-9cce-b03ea22cfdb5</t>
+  </si>
+  <si>
+    <t>bc8835df-a92b-4f2f-9476-968cc0a52535</t>
+  </si>
+  <si>
+    <t>6aec1433-98ee-447a-aadb-42c5bdfd1c72</t>
+  </si>
+  <si>
+    <t>G28</t>
+  </si>
+  <si>
+    <t>1e026706-6791-4c23-b303-6dfb992de42a</t>
+  </si>
+  <si>
+    <t>48d2c2f8-9c6c-41b1-9381-29b1cfc7d46b</t>
+  </si>
+  <si>
+    <t>e8d82867-6edd-4ef8-90ab-2c96095e0e83</t>
+  </si>
+  <si>
+    <t>f8007ea5-759a-44a6-9fad-ee8454f88454</t>
+  </si>
+  <si>
+    <t>G88</t>
+  </si>
+  <si>
+    <t>53d0d003-662b-4e5f-b8a4-c4c602b57c16</t>
+  </si>
+  <si>
+    <t>eebb27d1-473c-4e50-a6e6-1cf6d40c12f2</t>
+  </si>
+  <si>
+    <t>93a415da-82fb-4ef7-9330-ad2350ed07d2</t>
+  </si>
+  <si>
+    <t>db984c32-ab5c-4019-a640-36b247da42ea</t>
+  </si>
+  <si>
+    <t>c52a32f5-1335-477a-8f1a-831747fa8a12</t>
+  </si>
+  <si>
+    <t>d260e9cc-4e82-4ee1-9d40-44bcef1769a0</t>
+  </si>
+  <si>
+    <t>eea0056c-4983-4fe2-81b1-2be266ad7d02</t>
+  </si>
+  <si>
+    <t>74399639-70df-4310-83c0-77e80b9d3e30</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>2f14ceef-5911-44b7-a6bc-18ddde1af0e1</t>
+  </si>
+  <si>
+    <t>b282349a-ab86-4b93-8e48-204ec86b3514</t>
+  </si>
+  <si>
+    <t>50486ad0-e89e-43ed-9374-7bee2bde187e</t>
+  </si>
+  <si>
+    <t>00a9b780-f098-44c5-aca7-5c77501e18a8</t>
+  </si>
+  <si>
+    <t>G64</t>
+  </si>
+  <si>
+    <t>f556d493-f62d-40a6-a4e1-58a94ff1eac0</t>
+  </si>
+  <si>
+    <t>723222e2-d30e-48d4-92a2-f72949ca1e90</t>
+  </si>
+  <si>
+    <t>6ba1454f-bad6-4b1b-b01c-bbee963d01f1</t>
+  </si>
+  <si>
+    <t>G72</t>
+  </si>
+  <si>
+    <t>abe33b52-76be-4afc-8cab-eab148b7b5cc</t>
+  </si>
+  <si>
+    <t>13d9486d-7d80-4273-9eb5-0c1f6c5d2cd4</t>
+  </si>
+  <si>
+    <t>366cfa4e-2e3e-4e43-bf03-6225f794d5c5</t>
+  </si>
+  <si>
+    <t>69e4da46-f7d4-4de9-a0c8-a8b756e39e5f</t>
+  </si>
+  <si>
+    <t>e133eb89-128e-4c42-a69a-fa057030b1de</t>
+  </si>
+  <si>
+    <t>4e52db5c-7995-48ee-9403-cff399d58478</t>
+  </si>
+  <si>
+    <t>62c09399-4a6c-4244-a23d-88723cccf44d</t>
+  </si>
+  <si>
+    <t>b4caa296-c3b2-43f2-bb09-3d16a1d3b9c5</t>
+  </si>
+  <si>
+    <t>f68bca60-c8cf-4272-9448-3f28891a97cd</t>
+  </si>
+  <si>
+    <t>e5a069e2-730b-412d-9d70-1d37d062c7ac</t>
+  </si>
+  <si>
+    <t>a7d8c69d-d1c5-4c6b-93c1-8d6485c86884</t>
+  </si>
+  <si>
+    <t>97d768ce-5c92-406f-8fbc-40b16f2ec7ab</t>
+  </si>
+  <si>
+    <t>4257a960-5286-4d81-a656-0e02833bc22f</t>
+  </si>
+  <si>
+    <t>480f07d9-015c-4788-9cdd-43da12b4d697</t>
+  </si>
+  <si>
+    <t>d8be26b2-bd6f-4524-8824-a4abe7c0d2bf</t>
+  </si>
+  <si>
+    <t>16ba0ce8-d251-4ae0-b151-f09abad8cb15</t>
+  </si>
+  <si>
+    <t>G148</t>
+  </si>
+  <si>
+    <t>72709096-1ca5-472e-9cf5-8ba44e8f61c8</t>
+  </si>
+  <si>
+    <t>f78ed70b-90d7-4ea2-903e-9885ecb88a1e</t>
+  </si>
+  <si>
+    <t>3d17e772-6f86-4da7-a63a-c62bee734473</t>
+  </si>
+  <si>
+    <t>G29</t>
+  </si>
+  <si>
+    <t>4bb0e537-f199-4d0a-8a39-d83d4c9701c0</t>
+  </si>
+  <si>
+    <t>27ab26f6-967e-437b-88fd-68ae85bac202</t>
+  </si>
+  <si>
+    <t>79ab9915-0f27-465b-87b5-9bfd04bcb0e8</t>
+  </si>
+  <si>
+    <t>3eca5ca7-32a4-4d9f-a2a2-0935bac4515d</t>
+  </si>
+  <si>
+    <t>G223</t>
+  </si>
+  <si>
+    <t>5a656b43-cc88-42a3-baa2-4570191311c3</t>
+  </si>
+  <si>
+    <t>4c268db3-5281-44f0-868e-906f7f1272c4</t>
+  </si>
+  <si>
+    <t>edbb5998-b7b0-4c94-a00d-0c09e8721919</t>
+  </si>
+  <si>
+    <t>85988961-e0f3-4011-a86b-40f27235301d</t>
+  </si>
+  <si>
+    <t>3e655e2f-4fe4-45d9-850f-bfe3e8745efb</t>
+  </si>
+  <si>
+    <t>dab569ea-7424-43d3-b13d-2c622414c687</t>
+  </si>
+  <si>
+    <t>G228</t>
+  </si>
+  <si>
+    <t>9555dd5a-de04-4598-ad02-d767592b1d13</t>
+  </si>
+  <si>
+    <t>d227c6ad-31ad-4615-b506-9227e520a36f</t>
+  </si>
+  <si>
+    <t>1ef7aa9f-6d88-42c0-a368-c412922c01ad</t>
+  </si>
+  <si>
+    <t>23f82fb2-47ed-4f64-ad6f-052d843b5d1e</t>
+  </si>
+  <si>
+    <t>G195</t>
+  </si>
+  <si>
+    <t>45e4cc2e-8c11-476a-a3fe-12b9459aa694</t>
+  </si>
+  <si>
+    <t>9f6278bf-bc34-4a7c-bcd4-12a4d8d4a17e</t>
+  </si>
+  <si>
+    <t>e7e3a31a-8974-42a2-9229-d7b7f3138eaf</t>
+  </si>
+  <si>
+    <t>f9e5c543-d647-425b-a03d-21c43026720a</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>55cee5c3-4573-48ab-9108-d81b5fb3791e</t>
+  </si>
+  <si>
+    <t>3b1121ba-0537-4633-bd51-072b735b0505</t>
+  </si>
+  <si>
+    <t>a1426e78-6bc2-4ce4-9d58-0777384c066d</t>
+  </si>
+  <si>
+    <t>1911e077-52f7-437b-b1f5-0c6d2cb9ee65</t>
+  </si>
+  <si>
+    <t>7b7b10f2-bb3a-4de5-85b5-fe58c1849f15</t>
+  </si>
+  <si>
+    <t>abb415de-58b6-48ca-bf66-7885932d0121</t>
+  </si>
+  <si>
+    <t>96305c1e-a538-4c79-bd93-306c68e225d8</t>
+  </si>
+  <si>
+    <t>183ed2b7-2f3a-4a63-b8e9-9d6ec9d1154b</t>
+  </si>
+  <si>
+    <t>f59b8000-253e-47e8-8666-0dc4792aa10e</t>
+  </si>
+  <si>
+    <t>a70b88ed-8145-454d-9163-910f3cacc9de</t>
+  </si>
+  <si>
+    <t>b3aedfe2-5f5b-4116-af8e-c44f60e85bd1</t>
+  </si>
+  <si>
+    <t>45b8380d-a72d-41fe-b7ab-c9bb2cbe1b3c</t>
+  </si>
+  <si>
+    <t>G224</t>
+  </si>
+  <si>
+    <t>a251a387-f6f0-4bf3-8709-4df2b86c4e3f</t>
+  </si>
+  <si>
+    <t>5b8d4be8-018a-4352-9ce7-dc8ad05ee212</t>
+  </si>
+  <si>
+    <t>G70</t>
+  </si>
+  <si>
+    <t>3d0d5f74-b940-42a6-a25c-015d4173f008</t>
+  </si>
+  <si>
+    <t>f86463b2-155a-4ad3-a1b2-895a380cc9da</t>
+  </si>
+  <si>
+    <t>2732f0f4-1beb-487d-8835-567c913d2b56</t>
+  </si>
+  <si>
+    <t>27a5473e-76a5-4897-bba2-f463cffd8f1c</t>
+  </si>
+  <si>
+    <t>G218</t>
+  </si>
+  <si>
+    <t>6bd11461-3ccc-4515-b4b4-8bdeae3476db</t>
+  </si>
+  <si>
+    <t>fad99613-1209-4374-b0d5-e6299e6c406f</t>
+  </si>
+  <si>
+    <t>63576a77-83f2-4451-9940-8837f13f56b4</t>
+  </si>
+  <si>
+    <t>eec00abe-942c-4ebc-bef1-483b691ff36e</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>27d6d5ab-8cf4-4949-a33f-aebf51d01c69</t>
+  </si>
+  <si>
+    <t>6e258ac8-8bf4-4351-906f-4fb8b8d37adb</t>
+  </si>
+  <si>
+    <t>9b158211-ec56-4938-ad4c-68f35f8fcc7c</t>
+  </si>
+  <si>
+    <t>b4c3d54f-da18-41e9-bfeb-37bdb640ec26</t>
+  </si>
+  <si>
+    <t>G63</t>
+  </si>
+  <si>
+    <t>c671e30d-0041-4f1f-a19a-17724c64d603</t>
+  </si>
+  <si>
+    <t>813c3f0c-f9ac-4f9a-b08c-83913e543694</t>
+  </si>
+  <si>
+    <t>6fe29997-6522-46e3-92b3-1dcbf0549cb8</t>
+  </si>
+  <si>
+    <t>5aa4e11b-70df-427a-b385-6b83159d493a</t>
+  </si>
+  <si>
+    <t>G104</t>
+  </si>
+  <si>
+    <t>95f5bea6-f395-419e-83a3-7d9463f5c0c9</t>
+  </si>
+  <si>
+    <t>0639bfa8-e824-4fbb-9512-63b0dd5b9719</t>
+  </si>
+  <si>
+    <t>89d94b0b-7129-4e9c-ac76-700c909701c0</t>
+  </si>
+  <si>
+    <t>b7bfb8e2-0cbc-4eca-a20c-cfb4ae0ad102</t>
+  </si>
+  <si>
+    <t>62276826-23e6-498f-a062-8fd3c55a1485</t>
+  </si>
+  <si>
+    <t>91f6bb75-d70a-417a-9215-75cf91538c3f</t>
+  </si>
+  <si>
+    <t>9db67654-2fed-4dd0-b73c-6e4a9b9c03f0</t>
+  </si>
+  <si>
+    <t>6cfef61f-d030-43be-aeaf-8e4982bf1ebf</t>
+  </si>
+  <si>
+    <t>G43</t>
+  </si>
+  <si>
+    <t>a7adac21-f321-481b-99f0-3688f8b5d89a</t>
+  </si>
+  <si>
+    <t>79f43363-938c-4d3a-80e5-6bd665cdca36</t>
+  </si>
+  <si>
+    <t>5d6a82d3-73b0-47f2-8e1d-2608e9f50801</t>
+  </si>
+  <si>
+    <t>G69D</t>
+  </si>
+  <si>
+    <t>G71M</t>
+  </si>
+  <si>
+    <t>G51M</t>
+  </si>
+  <si>
+    <t>G51D</t>
+  </si>
+  <si>
+    <t>G108D</t>
+  </si>
+  <si>
+    <t>G108M</t>
+  </si>
+  <si>
+    <t>G69M</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,11 +770,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +824,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +856,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +908,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,115 +1101,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>UNIQUE_ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>TIPO</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>GEN</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>PLANTA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>AC</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>CP</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MC</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>NR</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>NC</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>NG</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MMG</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ICC</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BLOCK</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>CHECKS</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>127d373f-7c63-46b0-a8b2-7a5603af03de</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>G69</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
       </c>
       <c r="E2">
         <v>60</v>
@@ -485,7 +1214,7 @@
         <v>664</v>
       </c>
       <c r="M2">
-        <v>6.084337349397591</v>
+        <v>6.0843373493975914</v>
       </c>
       <c r="N2">
         <v>0.7412844036697247</v>
@@ -497,26 +1226,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>849dd821-d404-4165-abf5-1ed8eaf798fd</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>G69</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
       </c>
       <c r="E3">
         <v>65</v>
@@ -531,7 +1252,7 @@
         <v>3.68</v>
       </c>
       <c r="I3">
-        <v>2.22</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="J3">
         <v>9</v>
@@ -543,10 +1264,10 @@
         <v>395</v>
       </c>
       <c r="M3">
-        <v>5.620253164556962</v>
+        <v>5.6202531645569618</v>
       </c>
       <c r="N3">
-        <v>0.6032608695652174</v>
+        <v>0.60326086956521741</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -555,26 +1276,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>0ae6225f-2f07-493f-95fe-e4269cbdad04</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>G69</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
       </c>
       <c r="E4">
         <v>62</v>
@@ -601,10 +1314,10 @@
         <v>550</v>
       </c>
       <c r="M4">
-        <v>5.49090909090909</v>
+        <v>5.4909090909090903</v>
       </c>
       <c r="N4">
-        <v>0.7122641509433962</v>
+        <v>0.71226415094339623</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -613,26 +1326,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>9fd50ac6-f5ed-416d-8eee-c60ae2fd8d9b</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>G69</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
       </c>
       <c r="E5">
         <v>60</v>
@@ -662,7 +1367,7 @@
         <v>4.658869395711501</v>
       </c>
       <c r="N5">
-        <v>0.6272965879265092</v>
+        <v>0.62729658792650922</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -671,26 +1376,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>59b5023b-6694-4262-9e10-760d32468d1c</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
       </c>
       <c r="E6">
         <v>66</v>
@@ -720,7 +1417,7 @@
         <v>6.455399061032864</v>
       </c>
       <c r="N6">
-        <v>0.701530612244898</v>
+        <v>0.70153061224489799</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -729,26 +1426,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>105be11d-bc57-45a7-9ddf-da6de530202d</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
       </c>
       <c r="E7">
         <v>60</v>
@@ -763,7 +1452,7 @@
         <v>3.01</v>
       </c>
       <c r="I7">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -775,10 +1464,10 @@
         <v>387</v>
       </c>
       <c r="M7">
-        <v>5.943152454780361</v>
+        <v>5.9431524547803614</v>
       </c>
       <c r="N7">
-        <v>0.7641196013289037</v>
+        <v>0.76411960132890366</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -787,26 +1476,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07502ed0-31b6-49da-be09-fc57b6b7a3ac</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
       </c>
       <c r="E8">
         <v>62</v>
@@ -833,10 +1514,10 @@
         <v>1005</v>
       </c>
       <c r="M8">
-        <v>5.283582089552239</v>
+        <v>5.2835820895522394</v>
       </c>
       <c r="N8">
-        <v>0.6117511520737327</v>
+        <v>0.61175115207373265</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -845,26 +1526,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>a57b4bc2-61ff-4edc-a50b-c99145451e0d</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
       </c>
       <c r="E9">
         <v>60</v>
@@ -891,10 +1564,10 @@
         <v>736</v>
       </c>
       <c r="M9">
-        <v>5.951086956521739</v>
+        <v>5.9510869565217392</v>
       </c>
       <c r="N9">
-        <v>0.6952380952380952</v>
+        <v>0.69523809523809521</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -903,26 +1576,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>742707f0-22a2-4d91-8b9a-131739f74ac4</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>G74</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
       </c>
       <c r="E10">
         <v>60</v>
@@ -949,10 +1614,10 @@
         <v>541</v>
       </c>
       <c r="M10">
-        <v>4.399260628465804</v>
+        <v>4.3992606284658038</v>
       </c>
       <c r="N10">
-        <v>0.5847665847665847</v>
+        <v>0.58476658476658472</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -961,26 +1626,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>db3cb496-902d-4d7e-b915-9440b35d58a7</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>G74</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
       </c>
       <c r="E11">
         <v>58</v>
@@ -1010,7 +1667,7 @@
         <v>5.208333333333333</v>
       </c>
       <c r="N11">
-        <v>0.6968641114982578</v>
+        <v>0.69686411149825778</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -1019,26 +1676,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>bd30f147-641d-4e22-a47a-504c6fffee65</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>G74</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
       </c>
       <c r="E12">
         <v>68</v>
@@ -1053,7 +1702,7 @@
         <v>3.2</v>
       </c>
       <c r="I12">
-        <v>2.32</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -1065,10 +1714,10 @@
         <v>550</v>
       </c>
       <c r="M12">
-        <v>4.218181818181818</v>
+        <v>4.2181818181818178</v>
       </c>
       <c r="N12">
-        <v>0.7249999999999999</v>
+        <v>0.72499999999999987</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -1077,26 +1726,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>5d46b89e-55ba-488d-9943-72fee6d7703b</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>G74</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
       </c>
       <c r="E13">
         <v>68</v>
@@ -1111,7 +1752,7 @@
         <v>12.08</v>
       </c>
       <c r="I13">
-        <v>8.949999999999999</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="J13">
         <v>11</v>
@@ -1123,10 +1764,10 @@
         <v>1632</v>
       </c>
       <c r="M13">
-        <v>5.48406862745098</v>
+        <v>5.4840686274509798</v>
       </c>
       <c r="N13">
-        <v>0.7408940397350993</v>
+        <v>0.74089403973509926</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -1135,26 +1776,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>38f39dec-89a3-489b-9ed6-5f6aec003db2</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>G12</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
       </c>
       <c r="E14">
         <v>74</v>
@@ -1184,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="N14">
-        <v>0.282442748091603</v>
+        <v>0.28244274809160302</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -1193,26 +1826,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>851063ef-17df-41de-bb97-9a7756f47bf2</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>G12</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
       </c>
       <c r="E15">
         <v>72</v>
@@ -1242,7 +1867,7 @@
         <v>5.51219512195122</v>
       </c>
       <c r="N15">
-        <v>0.7985865724381626</v>
+        <v>0.79858657243816256</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -1251,26 +1876,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>d1df954f-2df9-4ad1-b603-211c1af02a4d</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>G12</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
       </c>
       <c r="E16">
         <v>70</v>
@@ -1297,10 +1914,10 @@
         <v>216</v>
       </c>
       <c r="M16">
-        <v>4.25925925925926</v>
+        <v>4.2592592592592604</v>
       </c>
       <c r="N16">
-        <v>0.5542168674698795</v>
+        <v>0.55421686746987953</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -1309,26 +1926,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2bd6eeee-17d9-404d-8773-5d57e58f64ed</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>G12</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
       </c>
       <c r="E17">
         <v>62</v>
@@ -1355,10 +1964,10 @@
         <v>1062</v>
       </c>
       <c r="M17">
-        <v>4.670433145009416</v>
+        <v>4.6704331450094161</v>
       </c>
       <c r="N17">
-        <v>0.761904761904762</v>
+        <v>0.76190476190476197</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -1367,26 +1976,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>a9b13442-b0f1-4a57-a9ca-67633f28fb32</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>G205</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
       </c>
       <c r="E18">
         <v>82</v>
@@ -1413,10 +2014,10 @@
         <v>418</v>
       </c>
       <c r="M18">
-        <v>4.473684210526316</v>
+        <v>4.4736842105263159</v>
       </c>
       <c r="N18">
-        <v>0.7192307692307692</v>
+        <v>0.71923076923076923</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -1425,26 +2026,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>9b8c1000-1a2a-4595-8bff-455cedac64af</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>G205</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
       </c>
       <c r="E19">
         <v>84</v>
@@ -1471,10 +2064,10 @@
         <v>193</v>
       </c>
       <c r="M19">
-        <v>4.974093264248705</v>
+        <v>4.9740932642487046</v>
       </c>
       <c r="N19">
-        <v>0.6906474820143885</v>
+        <v>0.69064748201438853</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -1483,26 +2076,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>c1ccf360-ef4e-4593-b7c0-5477f4e2aaac</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>G205</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
       </c>
       <c r="E20">
         <v>86</v>
@@ -1514,7 +2099,7 @@
         <v>41</v>
       </c>
       <c r="H20">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="I20">
         <v>0.52</v>
@@ -1529,10 +2114,10 @@
         <v>127</v>
       </c>
       <c r="M20">
-        <v>4.094488188976379</v>
+        <v>4.0944881889763787</v>
       </c>
       <c r="N20">
-        <v>0.5531914893617021</v>
+        <v>0.55319148936170215</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -1541,26 +2126,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>7e1b2853-e6f9-42fb-ab72-6613200f5d61</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>G205</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -1590,7 +2167,7 @@
         <v>4.56359102244389</v>
       </c>
       <c r="N21">
-        <v>0.6267123287671234</v>
+        <v>0.62671232876712335</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -1599,26 +2176,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>6ab11a67-acdf-45cb-a137-512a54c1b186</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>G51</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
       </c>
       <c r="E22">
         <v>70</v>
@@ -1645,10 +2214,10 @@
         <v>338</v>
       </c>
       <c r="M22">
-        <v>4.023668639053255</v>
+        <v>4.0236686390532546</v>
       </c>
       <c r="N22">
-        <v>0.6974358974358975</v>
+        <v>0.69743589743589751</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -1657,26 +2226,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>f6ccd2b8-cd96-4a19-83d8-4dc55e1d60e3</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>G51</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
       </c>
       <c r="E23">
         <v>65</v>
@@ -1703,10 +2264,10 @@
         <v>414</v>
       </c>
       <c r="M23">
-        <v>4.130434782608695</v>
+        <v>4.1304347826086953</v>
       </c>
       <c r="N23">
-        <v>0.7125</v>
+        <v>0.71250000000000002</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -1715,26 +2276,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>5fecda17-4962-4993-9b1b-53fcc63f9817</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>G51</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>227</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
       </c>
       <c r="E24">
         <v>69</v>
@@ -1749,7 +2302,7 @@
         <v>1.5</v>
       </c>
       <c r="I24">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="J24">
         <v>5</v>
@@ -1773,26 +2326,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>47f05708-a8f2-4969-a004-74d5513911a3</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>G51</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>227</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
       </c>
       <c r="E25">
         <v>70</v>
@@ -1819,10 +2364,10 @@
         <v>333</v>
       </c>
       <c r="M25">
-        <v>4.294294294294295</v>
+        <v>4.2942942942942954</v>
       </c>
       <c r="N25">
-        <v>0.662037037037037</v>
+        <v>0.66203703703703698</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -1831,26 +2376,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>0ed81196-d1a7-43a3-931e-fe89b9900d69</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>G23</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
       </c>
       <c r="E26">
         <v>77</v>
@@ -1877,7 +2414,7 @@
         <v>731</v>
       </c>
       <c r="M26">
-        <v>4.733242134062928</v>
+        <v>4.7332421340629276</v>
       </c>
       <c r="N26">
         <v>0.7361702127659574</v>
@@ -1889,26 +2426,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>b9c3505d-9a95-4157-9b50-ac1d46f6c2af</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>G23</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
       </c>
       <c r="E27">
         <v>64</v>
@@ -1935,10 +2464,10 @@
         <v>376</v>
       </c>
       <c r="M27">
-        <v>4.388297872340425</v>
+        <v>4.3882978723404253</v>
       </c>
       <c r="N27">
-        <v>0.702127659574468</v>
+        <v>0.70212765957446799</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -1947,26 +2476,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>4dfccab2-1131-45b5-b7c9-4b0b1b4351b5</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>G23</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
       </c>
       <c r="E28">
         <v>75</v>
@@ -1993,7 +2514,7 @@
         <v>923</v>
       </c>
       <c r="M28">
-        <v>6.121343445287108</v>
+        <v>6.1213434452871081</v>
       </c>
       <c r="N28">
         <v>0.778236914600551</v>
@@ -2005,26 +2526,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>47392d1a-9acc-4f92-a822-a7dddbb8d14b</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>G23</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
       </c>
       <c r="E29">
         <v>78</v>
@@ -2051,10 +2564,10 @@
         <v>831</v>
       </c>
       <c r="M29">
-        <v>5.198555956678701</v>
+        <v>5.1985559566787014</v>
       </c>
       <c r="N29">
-        <v>0.7474048442906575</v>
+        <v>0.74740484429065746</v>
       </c>
       <c r="O29">
         <v>1</v>
@@ -2063,26 +2576,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>92bff4c7-2c97-4e17-b12a-782c31f9ad7f</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>ST_PIONEIRA</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
       </c>
       <c r="E30">
         <v>40</v>
@@ -2094,7 +2599,7 @@
         <v>10</v>
       </c>
       <c r="H30">
-        <v>2.24</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="I30">
         <v>1.66</v>
@@ -2109,10 +2614,10 @@
         <v>285</v>
       </c>
       <c r="M30">
-        <v>5.824561403508771</v>
+        <v>5.8245614035087714</v>
       </c>
       <c r="N30">
-        <v>0.7410714285714285</v>
+        <v>0.74107142857142849</v>
       </c>
       <c r="O30">
         <v>1</v>
@@ -2121,26 +2626,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>8ff43058-f7f3-4bec-acff-9feabd9eaddd</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>ST_PIONEIRA</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
       </c>
       <c r="E31">
         <v>69</v>
@@ -2167,10 +2664,10 @@
         <v>423</v>
       </c>
       <c r="M31">
-        <v>5.555555555555555</v>
+        <v>5.5555555555555554</v>
       </c>
       <c r="N31">
-        <v>0.5635491606714629</v>
+        <v>0.56354916067146288</v>
       </c>
       <c r="O31">
         <v>1</v>
@@ -2179,26 +2676,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>45c21bbc-e263-4b31-a986-a2306d2e3f8a</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>ST_PIONEIRA</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
       </c>
       <c r="E32">
         <v>78</v>
@@ -2225,10 +2714,10 @@
         <v>21</v>
       </c>
       <c r="M32">
-        <v>4.761904761904763</v>
+        <v>4.7619047619047628</v>
       </c>
       <c r="N32">
-        <v>0.303030303030303</v>
+        <v>0.30303030303030298</v>
       </c>
       <c r="O32">
         <v>1</v>
@@ -2237,26 +2726,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>9da02a71-c64b-42e4-8767-98211ecf957f</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>ST_PIONEIRA</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
       </c>
       <c r="E33">
         <v>70</v>
@@ -2283,7 +2764,7 @@
         <v>273</v>
       </c>
       <c r="M33">
-        <v>5.274725274725275</v>
+        <v>5.2747252747252746</v>
       </c>
       <c r="N33">
         <v>0.5901639344262295</v>
@@ -2295,26 +2776,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>8dae31df-8b4f-48f1-96dd-ac8e584fdd1b</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>G141</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
       </c>
       <c r="E34">
         <v>88</v>
@@ -2341,10 +2814,10 @@
         <v>1085</v>
       </c>
       <c r="M34">
-        <v>5.105990783410138</v>
+        <v>5.1059907834101379</v>
       </c>
       <c r="N34">
-        <v>0.7651933701657458</v>
+        <v>0.76519337016574585</v>
       </c>
       <c r="O34">
         <v>1</v>
@@ -2353,26 +2826,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>e4cbd996-ee16-4956-8b9b-c661e6a332f3</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>G141</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
       </c>
       <c r="E35">
         <v>80</v>
@@ -2399,10 +2864,10 @@
         <v>477</v>
       </c>
       <c r="M35">
-        <v>5.681341719077568</v>
+        <v>5.6813417190775679</v>
       </c>
       <c r="N35">
-        <v>0.7445054945054945</v>
+        <v>0.74450549450549453</v>
       </c>
       <c r="O35">
         <v>1</v>
@@ -2411,26 +2876,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>9deadf98-c274-4c3c-8412-9fa0a7b31821</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>G141</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" t="s">
+        <v>22</v>
       </c>
       <c r="E36">
         <v>84</v>
@@ -2460,7 +2917,7 @@
         <v>5.28169014084507</v>
       </c>
       <c r="N36">
-        <v>0.7627118644067796</v>
+        <v>0.76271186440677963</v>
       </c>
       <c r="O36">
         <v>1</v>
@@ -2469,26 +2926,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>10eebf5a-614e-45bc-9a7a-b516ab1a5d75</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>G141</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
       </c>
       <c r="E37">
         <v>74</v>
@@ -2515,10 +2964,10 @@
         <v>760</v>
       </c>
       <c r="M37">
-        <v>5.868421052631579</v>
+        <v>5.8684210526315788</v>
       </c>
       <c r="N37">
-        <v>0.770293609671848</v>
+        <v>0.77029360967184801</v>
       </c>
       <c r="O37">
         <v>1</v>
@@ -2527,26 +2976,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>1d3d59fe-b2be-4b3a-9591-23f0e8fc3050</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>G216</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
       </c>
       <c r="E38">
         <v>60</v>
@@ -2561,7 +3002,7 @@
         <v>0.87</v>
       </c>
       <c r="I38">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J38">
         <v>6</v>
@@ -2573,10 +3014,10 @@
         <v>154</v>
       </c>
       <c r="M38">
-        <v>3.701298701298701</v>
+        <v>3.7012987012987009</v>
       </c>
       <c r="N38">
-        <v>0.6551724137931034</v>
+        <v>0.65517241379310343</v>
       </c>
       <c r="O38">
         <v>2</v>
@@ -2585,26 +3026,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>1a7003e4-9875-4ea8-a997-72e2aac9609f</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>G216</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" t="s">
+        <v>20</v>
       </c>
       <c r="E39">
         <v>56</v>
@@ -2631,10 +3064,10 @@
         <v>381</v>
       </c>
       <c r="M39">
-        <v>4.461942257217848</v>
+        <v>4.4619422572178484</v>
       </c>
       <c r="N39">
-        <v>0.6439393939393939</v>
+        <v>0.64393939393939392</v>
       </c>
       <c r="O39">
         <v>2</v>
@@ -2643,26 +3076,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>bc42e6a1-1c22-4a79-bba4-6aad5a666e7b</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>G216</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" t="s">
+        <v>22</v>
       </c>
       <c r="E40">
         <v>63</v>
@@ -2677,7 +3102,7 @@
         <v>3.09</v>
       </c>
       <c r="I40">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="J40">
         <v>4</v>
@@ -2689,7 +3114,7 @@
         <v>485</v>
       </c>
       <c r="M40">
-        <v>4.494845360824742</v>
+        <v>4.4948453608247423</v>
       </c>
       <c r="N40">
         <v>0.7055016181229774</v>
@@ -2701,26 +3126,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>c9a3475a-b931-465d-87e6-2814b2c59205</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>G216</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
       </c>
       <c r="E41">
         <v>74</v>
@@ -2735,7 +3152,7 @@
         <v>6.25</v>
       </c>
       <c r="I41">
-        <v>4.11</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="J41">
         <v>5</v>
@@ -2747,10 +3164,10 @@
         <v>838</v>
       </c>
       <c r="M41">
-        <v>4.904534606205251</v>
+        <v>4.9045346062052513</v>
       </c>
       <c r="N41">
-        <v>0.6576000000000001</v>
+        <v>0.65760000000000007</v>
       </c>
       <c r="O41">
         <v>2</v>
@@ -2759,26 +3176,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>44bb388c-7ff4-40cc-a445-09c5e79d21ea</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>G37</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" t="s">
+        <v>18</v>
       </c>
       <c r="E42">
         <v>63</v>
@@ -2790,7 +3199,7 @@
         <v>30</v>
       </c>
       <c r="H42">
-        <v>4.35</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="I42">
         <v>3.05</v>
@@ -2805,10 +3214,10 @@
         <v>750</v>
       </c>
       <c r="M42">
-        <v>4.066666666666666</v>
+        <v>4.0666666666666664</v>
       </c>
       <c r="N42">
-        <v>0.7011494252873564</v>
+        <v>0.70114942528735635</v>
       </c>
       <c r="O42">
         <v>2</v>
@@ -2817,26 +3226,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>c16edbdb-a379-4994-ba83-e726dc948ead</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>G37</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
       </c>
       <c r="E43">
         <v>72</v>
@@ -2863,10 +3264,10 @@
         <v>1319</v>
       </c>
       <c r="M43">
-        <v>4.700530705079606</v>
+        <v>4.7005307050796059</v>
       </c>
       <c r="N43">
-        <v>0.7868020304568528</v>
+        <v>0.78680203045685282</v>
       </c>
       <c r="O43">
         <v>2</v>
@@ -2875,26 +3276,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>0903e258-77a9-40a4-986b-23aa65810dbf</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>G37</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" t="s">
+        <v>22</v>
       </c>
       <c r="E44">
         <v>64</v>
@@ -2906,7 +3299,7 @@
         <v>18</v>
       </c>
       <c r="H44">
-        <v>4.85</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="I44">
         <v>3.58</v>
@@ -2921,10 +3314,10 @@
         <v>829</v>
       </c>
       <c r="M44">
-        <v>4.318455971049458</v>
+        <v>4.3184559710494579</v>
       </c>
       <c r="N44">
-        <v>0.7381443298969073</v>
+        <v>0.73814432989690726</v>
       </c>
       <c r="O44">
         <v>2</v>
@@ -2933,26 +3326,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>47740a1d-6142-4e6e-98ab-5cc47bd6b398</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>G37</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
       </c>
       <c r="E45">
         <v>69</v>
@@ -2979,10 +3364,10 @@
         <v>492</v>
       </c>
       <c r="M45">
-        <v>5.16260162601626</v>
+        <v>5.1626016260162597</v>
       </c>
       <c r="N45">
-        <v>0.79375</v>
+        <v>0.79374999999999996</v>
       </c>
       <c r="O45">
         <v>2</v>
@@ -2991,26 +3376,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>3d7da214-4fb3-47a6-9537-94594c2d5ec9</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>G93</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" t="s">
+        <v>18</v>
       </c>
       <c r="E46">
         <v>73</v>
@@ -3040,7 +3417,7 @@
         <v>5.00578034682081</v>
       </c>
       <c r="N46">
-        <v>0.7887067395264117</v>
+        <v>0.78870673952641168</v>
       </c>
       <c r="O46">
         <v>2</v>
@@ -3049,26 +3426,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>35a69e68-c103-4434-a297-de5d734c0efc</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>G93</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" t="s">
+        <v>20</v>
       </c>
       <c r="E47">
         <v>69</v>
@@ -3095,7 +3464,7 @@
         <v>23</v>
       </c>
       <c r="M47">
-        <v>6.521739130434782</v>
+        <v>6.5217391304347823</v>
       </c>
       <c r="N47">
         <v>0.7142857142857143</v>
@@ -3107,26 +3476,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>ddd5b04b-6924-4268-b658-4e4588e7aeda</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>G93</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" t="s">
+        <v>22</v>
       </c>
       <c r="E48">
         <v>78</v>
@@ -3153,10 +3514,10 @@
         <v>1205</v>
       </c>
       <c r="M48">
-        <v>5.045643153526972</v>
+        <v>5.0456431535269717</v>
       </c>
       <c r="N48">
-        <v>0.7686472819216182</v>
+        <v>0.76864728192161824</v>
       </c>
       <c r="O48">
         <v>2</v>
@@ -3165,26 +3526,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>65811f97-bc7b-417a-901e-aa7d9860d747</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>G93</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" t="s">
+        <v>24</v>
       </c>
       <c r="E49">
         <v>75</v>
@@ -3223,26 +3576,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>3b8afc6f-1d77-4a5a-94c6-f711db3ddeba</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>G145</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" t="s">
+        <v>18</v>
       </c>
       <c r="E50">
         <v>80</v>
@@ -3269,7 +3614,7 @@
         <v>1692</v>
       </c>
       <c r="M50">
-        <v>5.271867612293144</v>
+        <v>5.2718676122931436</v>
       </c>
       <c r="N50">
         <v>0.8087035358114234</v>
@@ -3281,26 +3626,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>6f1c0231-ba12-472d-bd0a-fa505aa84563</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>G145</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" t="s">
+        <v>20</v>
       </c>
       <c r="E51">
         <v>70</v>
@@ -3330,7 +3667,7 @@
         <v>4.825174825174825</v>
       </c>
       <c r="N51">
-        <v>0.7225130890052356</v>
+        <v>0.72251308900523559</v>
       </c>
       <c r="O51">
         <v>2</v>
@@ -3339,26 +3676,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>9cfb5cf6-87e6-4705-9d28-bb8e316a3809</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>G145</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" t="s">
+        <v>22</v>
       </c>
       <c r="E52">
         <v>70</v>
@@ -3373,7 +3702,7 @@
         <v>2.72</v>
       </c>
       <c r="I52">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="J52">
         <v>5</v>
@@ -3385,10 +3714,10 @@
         <v>412</v>
       </c>
       <c r="M52">
-        <v>5.898058252427185</v>
+        <v>5.8980582524271847</v>
       </c>
       <c r="N52">
-        <v>0.8933823529411765</v>
+        <v>0.89338235294117652</v>
       </c>
       <c r="O52">
         <v>2</v>
@@ -3397,26 +3726,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>e4462bc2-8668-4534-a977-3d85193c5579</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>G145</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" t="s">
+        <v>24</v>
       </c>
       <c r="E53">
         <v>84</v>
@@ -3446,7 +3767,7 @@
         <v>5.2</v>
       </c>
       <c r="N53">
-        <v>0.7807807807807808</v>
+        <v>0.78078078078078084</v>
       </c>
       <c r="O53">
         <v>2</v>
@@ -3455,26 +3776,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>96d9b6a5-a242-4c98-91e8-2cc5958b28f6</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>ST_PIONEIRA</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" t="s">
+        <v>18</v>
       </c>
       <c r="E54">
         <v>73</v>
@@ -3501,10 +3814,10 @@
         <v>2258</v>
       </c>
       <c r="M54">
-        <v>5.597874224977857</v>
+        <v>5.5978742249778568</v>
       </c>
       <c r="N54">
-        <v>0.7141242937853108</v>
+        <v>0.71412429378531084</v>
       </c>
       <c r="O54">
         <v>2</v>
@@ -3513,26 +3826,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>07e8fdca-1759-40bc-8980-7f4d1e615fdf</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>ST_PIONEIRA</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" t="s">
+        <v>20</v>
       </c>
       <c r="E55">
         <v>72</v>
@@ -3559,10 +3864,10 @@
         <v>707</v>
       </c>
       <c r="M55">
-        <v>5.021216407355021</v>
+        <v>5.0212164073550207</v>
       </c>
       <c r="N55">
-        <v>0.5810147299509001</v>
+        <v>0.58101472995090009</v>
       </c>
       <c r="O55">
         <v>2</v>
@@ -3571,26 +3876,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>d66527d4-a65d-4bbf-a0c5-8e517fa3326f</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>ST_PIONEIRA</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" t="s">
+        <v>22</v>
       </c>
       <c r="E56">
         <v>52</v>
@@ -3617,7 +3914,7 @@
         <v>744</v>
       </c>
       <c r="M56">
-        <v>5.241935483870967</v>
+        <v>5.2419354838709671</v>
       </c>
       <c r="N56">
         <v>0.7753479125248508</v>
@@ -3629,26 +3926,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>5ae8b265-9e47-4b8e-8188-add077c06ceb</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>ST_PIONEIRA</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" t="s">
+        <v>24</v>
       </c>
       <c r="E57">
         <v>74</v>
@@ -3663,7 +3952,7 @@
         <v>21.71</v>
       </c>
       <c r="I57">
-        <v>17.33</v>
+        <v>17.329999999999998</v>
       </c>
       <c r="J57">
         <v>8</v>
@@ -3675,10 +3964,10 @@
         <v>2850</v>
       </c>
       <c r="M57">
-        <v>6.080701754385965</v>
+        <v>6.0807017543859647</v>
       </c>
       <c r="N57">
-        <v>0.7982496545370795</v>
+        <v>0.79824965453707952</v>
       </c>
       <c r="O57">
         <v>2</v>
@@ -3687,26 +3976,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>9bdadeba-444a-4e16-9a7b-ebf19178f334</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>G13</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
       </c>
       <c r="E58">
         <v>71</v>
@@ -3733,10 +4014,10 @@
         <v>1478</v>
       </c>
       <c r="M58">
-        <v>4.736129905277402</v>
+        <v>4.7361299052774024</v>
       </c>
       <c r="N58">
-        <v>0.7575757575757576</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="O58">
         <v>2</v>
@@ -3745,26 +4026,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>abda3ff9-4cb3-4ede-9a83-99032913da85</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>G13</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" t="s">
+        <v>20</v>
       </c>
       <c r="E59">
         <v>76</v>
@@ -3776,7 +4049,7 @@
         <v>34</v>
       </c>
       <c r="H59">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I59">
         <v>7.28</v>
@@ -3794,7 +4067,7 @@
         <v>5</v>
       </c>
       <c r="N59">
-        <v>0.7827956989247311</v>
+        <v>0.78279569892473111</v>
       </c>
       <c r="O59">
         <v>2</v>
@@ -3803,26 +4076,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>17f03f9a-c88a-4f9f-817d-a79d3d9d80d0</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>G13</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" t="s">
+        <v>22</v>
       </c>
       <c r="E60">
         <v>63</v>
@@ -3849,10 +4114,10 @@
         <v>737</v>
       </c>
       <c r="M60">
-        <v>4.694708276797829</v>
+        <v>4.6947082767978294</v>
       </c>
       <c r="N60">
-        <v>0.7637969094922736</v>
+        <v>0.76379690949227363</v>
       </c>
       <c r="O60">
         <v>2</v>
@@ -3861,26 +4126,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>8ff14fb7-245b-4609-b34e-0bdcb532a7b5</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>G13</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" t="s">
+        <v>24</v>
       </c>
       <c r="E61">
         <v>69</v>
@@ -3907,10 +4164,10 @@
         <v>739</v>
       </c>
       <c r="M61">
-        <v>4.56021650879567</v>
+        <v>4.5602165087956701</v>
       </c>
       <c r="N61">
-        <v>0.7873831775700935</v>
+        <v>0.78738317757009346</v>
       </c>
       <c r="O61">
         <v>2</v>
@@ -3919,26 +4176,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>48c88557-e89a-4c05-abb0-e2e6a92c1e10</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>G54</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" t="s">
+        <v>95</v>
+      </c>
+      <c r="D62" t="s">
+        <v>18</v>
       </c>
       <c r="E62">
         <v>52</v>
@@ -3950,7 +4199,7 @@
         <v>33</v>
       </c>
       <c r="H62">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I62">
         <v>0.05</v>
@@ -3965,7 +4214,7 @@
         <v>9</v>
       </c>
       <c r="M62">
-        <v>5.555555555555555</v>
+        <v>5.5555555555555554</v>
       </c>
       <c r="N62">
         <v>0.7142857142857143</v>
@@ -3977,26 +4226,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>f29902e4-bb90-4664-9f28-d4cfec09b374</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>G54</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" t="s">
+        <v>95</v>
+      </c>
+      <c r="D63" t="s">
+        <v>20</v>
       </c>
       <c r="E63">
         <v>58</v>
@@ -4026,7 +4267,7 @@
         <v>6.666666666666667</v>
       </c>
       <c r="N63">
-        <v>0.6666666666666667</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="O63">
         <v>2</v>
@@ -4035,26 +4276,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>6d40d5e9-1f86-4c3b-bfc6-8031c52bd804</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>G54</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" t="s">
+        <v>95</v>
+      </c>
+      <c r="D64" t="s">
+        <v>22</v>
       </c>
       <c r="E64">
         <v>56</v>
@@ -4093,26 +4326,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>f571ad10-d7f9-4bbc-b12d-9f55d1d61e0a</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>G54</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>98</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" t="s">
+        <v>95</v>
+      </c>
+      <c r="D65" t="s">
+        <v>24</v>
       </c>
       <c r="E65">
         <v>56</v>
@@ -4139,7 +4364,7 @@
         <v>60</v>
       </c>
       <c r="M65">
-        <v>5.500000000000001</v>
+        <v>5.5000000000000009</v>
       </c>
       <c r="N65">
         <v>0.75</v>
@@ -4151,26 +4376,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>b8ad5dc6-8ace-4657-9ad7-8e08dd1ba2e3</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>G215</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>99</v>
+      </c>
+      <c r="B66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" t="s">
+        <v>100</v>
+      </c>
+      <c r="D66" t="s">
+        <v>18</v>
       </c>
       <c r="E66">
         <v>64</v>
@@ -4185,7 +4402,7 @@
         <v>2.77</v>
       </c>
       <c r="I66">
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="J66">
         <v>4</v>
@@ -4197,10 +4414,10 @@
         <v>335</v>
       </c>
       <c r="M66">
-        <v>6.119402985074626</v>
+        <v>6.1194029850746263</v>
       </c>
       <c r="N66">
-        <v>0.740072202166065</v>
+        <v>0.74007220216606495</v>
       </c>
       <c r="O66">
         <v>2</v>
@@ -4209,26 +4426,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>4a687771-5efe-4d17-b2d9-dcec925b2303</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>G215</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>101</v>
+      </c>
+      <c r="B67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" t="s">
+        <v>100</v>
+      </c>
+      <c r="D67" t="s">
+        <v>20</v>
       </c>
       <c r="E67">
         <v>67</v>
@@ -4243,7 +4452,7 @@
         <v>6.66</v>
       </c>
       <c r="I67">
-        <v>4.86</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="J67">
         <v>10</v>
@@ -4258,7 +4467,7 @@
         <v>4.778761061946903</v>
       </c>
       <c r="N67">
-        <v>0.7297297297297297</v>
+        <v>0.72972972972972971</v>
       </c>
       <c r="O67">
         <v>2</v>
@@ -4267,26 +4476,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>fca71a29-7f44-4d44-86b5-eb93cd9d9b52</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>G215</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" t="s">
+        <v>100</v>
+      </c>
+      <c r="D68" t="s">
+        <v>22</v>
       </c>
       <c r="E68">
         <v>62</v>
@@ -4313,10 +4514,10 @@
         <v>965</v>
       </c>
       <c r="M68">
-        <v>5.917098445595855</v>
+        <v>5.9170984455958546</v>
       </c>
       <c r="N68">
-        <v>0.7493438320209974</v>
+        <v>0.74934383202099741</v>
       </c>
       <c r="O68">
         <v>2</v>
@@ -4325,26 +4526,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>99b9abff-751f-496e-916c-86fddfac881a</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>G215</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>103</v>
+      </c>
+      <c r="B69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" t="s">
+        <v>100</v>
+      </c>
+      <c r="D69" t="s">
+        <v>24</v>
       </c>
       <c r="E69">
         <v>62</v>
@@ -4371,10 +4564,10 @@
         <v>542</v>
       </c>
       <c r="M69">
-        <v>6.143911439114391</v>
+        <v>6.1439114391143912</v>
       </c>
       <c r="N69">
-        <v>0.7672811059907835</v>
+        <v>0.76728110599078347</v>
       </c>
       <c r="O69">
         <v>2</v>
@@ -4383,26 +4576,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>87684dce-9c66-4e06-a54a-c40d621510b8</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>G84</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>104</v>
+      </c>
+      <c r="B70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" t="s">
+        <v>105</v>
+      </c>
+      <c r="D70" t="s">
+        <v>18</v>
       </c>
       <c r="E70">
         <v>65</v>
@@ -4429,10 +4614,10 @@
         <v>611</v>
       </c>
       <c r="M70">
-        <v>5.040916530278232</v>
+        <v>5.0409165302782322</v>
       </c>
       <c r="N70">
-        <v>0.8105263157894738</v>
+        <v>0.81052631578947376</v>
       </c>
       <c r="O70">
         <v>2</v>
@@ -4441,26 +4626,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>0362d56c-3c3f-4be5-84e7-d1f88a24c2ed</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>G84</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>106</v>
+      </c>
+      <c r="B71" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" t="s">
+        <v>105</v>
+      </c>
+      <c r="D71" t="s">
+        <v>20</v>
       </c>
       <c r="E71">
         <v>69</v>
@@ -4487,10 +4664,10 @@
         <v>310</v>
       </c>
       <c r="M71">
-        <v>4.516129032258064</v>
+        <v>4.5161290322580641</v>
       </c>
       <c r="N71">
-        <v>0.7777777777777777</v>
+        <v>0.77777777777777768</v>
       </c>
       <c r="O71">
         <v>2</v>
@@ -4499,26 +4676,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>e4c7ba4a-fb80-44c8-9cce-b03ea22cfdb5</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>G84</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" t="s">
+        <v>105</v>
+      </c>
+      <c r="D72" t="s">
+        <v>22</v>
       </c>
       <c r="E72">
         <v>65</v>
@@ -4545,7 +4714,7 @@
         <v>546</v>
       </c>
       <c r="M72">
-        <v>4.908424908424909</v>
+        <v>4.9084249084249088</v>
       </c>
       <c r="N72">
         <v>0.7723342939481268</v>
@@ -4557,26 +4726,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>bc8835df-a92b-4f2f-9476-968cc0a52535</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>G84</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>108</v>
+      </c>
+      <c r="B73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" t="s">
+        <v>105</v>
+      </c>
+      <c r="D73" t="s">
+        <v>24</v>
       </c>
       <c r="E73">
         <v>54</v>
@@ -4603,10 +4764,10 @@
         <v>481</v>
       </c>
       <c r="M73">
-        <v>5.821205821205821</v>
+        <v>5.8212058212058206</v>
       </c>
       <c r="N73">
-        <v>0.717948717948718</v>
+        <v>0.71794871794871795</v>
       </c>
       <c r="O73">
         <v>2</v>
@@ -4615,26 +4776,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>6aec1433-98ee-447a-aadb-42c5bdfd1c72</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>G28</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" t="s">
+        <v>110</v>
+      </c>
+      <c r="D74" t="s">
+        <v>18</v>
       </c>
       <c r="E74">
         <v>40</v>
@@ -4664,7 +4817,7 @@
         <v>4.113924050632912</v>
       </c>
       <c r="N74">
-        <v>0.663265306122449</v>
+        <v>0.66326530612244905</v>
       </c>
       <c r="O74">
         <v>2</v>
@@ -4673,26 +4826,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>1e026706-6791-4c23-b303-6dfb992de42a</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>G28</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>111</v>
+      </c>
+      <c r="B75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" t="s">
+        <v>110</v>
+      </c>
+      <c r="D75" t="s">
+        <v>20</v>
       </c>
       <c r="E75">
         <v>45</v>
@@ -4722,7 +4867,7 @@
         <v>5.204081632653061</v>
       </c>
       <c r="N75">
-        <v>0.7285714285714286</v>
+        <v>0.72857142857142865</v>
       </c>
       <c r="O75">
         <v>2</v>
@@ -4731,26 +4876,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>48d2c2f8-9c6c-41b1-9381-29b1cfc7d46b</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>G28</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>112</v>
+      </c>
+      <c r="B76" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" t="s">
+        <v>110</v>
+      </c>
+      <c r="D76" t="s">
+        <v>22</v>
       </c>
       <c r="E76">
         <v>53</v>
@@ -4777,10 +4914,10 @@
         <v>193</v>
       </c>
       <c r="M76">
-        <v>4.404145077720207</v>
+        <v>4.4041450777202069</v>
       </c>
       <c r="N76">
-        <v>0.7264957264957265</v>
+        <v>0.72649572649572647</v>
       </c>
       <c r="O76">
         <v>2</v>
@@ -4789,26 +4926,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>e8d82867-6edd-4ef8-90ab-2c96095e0e83</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>G28</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>113</v>
+      </c>
+      <c r="B77" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" t="s">
+        <v>110</v>
+      </c>
+      <c r="D77" t="s">
+        <v>24</v>
       </c>
       <c r="E77">
         <v>62</v>
@@ -4835,10 +4964,10 @@
         <v>477</v>
       </c>
       <c r="M77">
-        <v>5.429769392033543</v>
+        <v>5.4297693920335428</v>
       </c>
       <c r="N77">
-        <v>0.7777777777777777</v>
+        <v>0.77777777777777768</v>
       </c>
       <c r="O77">
         <v>2</v>
@@ -4847,26 +4976,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>f8007ea5-759a-44a6-9fad-ee8454f88454</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>G88</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>114</v>
+      </c>
+      <c r="B78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C78" t="s">
+        <v>115</v>
+      </c>
+      <c r="D78" t="s">
+        <v>18</v>
       </c>
       <c r="E78">
         <v>68</v>
@@ -4905,26 +5026,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>53d0d003-662b-4e5f-b8a4-c4c602b57c16</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>G88</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>116</v>
+      </c>
+      <c r="B79" t="s">
+        <v>50</v>
+      </c>
+      <c r="C79" t="s">
+        <v>115</v>
+      </c>
+      <c r="D79" t="s">
+        <v>20</v>
       </c>
       <c r="E79">
         <v>68</v>
@@ -4951,10 +5064,10 @@
         <v>348</v>
       </c>
       <c r="M79">
-        <v>5.028735632183908</v>
+        <v>5.0287356321839081</v>
       </c>
       <c r="N79">
-        <v>0.6205673758865249</v>
+        <v>0.62056737588652489</v>
       </c>
       <c r="O79">
         <v>3</v>
@@ -4963,26 +5076,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>eebb27d1-473c-4e50-a6e6-1cf6d40c12f2</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>G88</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>117</v>
+      </c>
+      <c r="B80" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80" t="s">
+        <v>115</v>
+      </c>
+      <c r="D80" t="s">
+        <v>22</v>
       </c>
       <c r="E80">
         <v>78</v>
@@ -5009,7 +5114,7 @@
         <v>370</v>
       </c>
       <c r="M80">
-        <v>5.405405405405405</v>
+        <v>5.4054054054054053</v>
       </c>
       <c r="N80">
         <v>0.7246376811594204</v>
@@ -5021,26 +5126,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>93a415da-82fb-4ef7-9330-ad2350ed07d2</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>G88</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>118</v>
+      </c>
+      <c r="B81" t="s">
+        <v>50</v>
+      </c>
+      <c r="C81" t="s">
+        <v>115</v>
+      </c>
+      <c r="D81" t="s">
+        <v>24</v>
       </c>
       <c r="E81">
         <v>57</v>
@@ -5067,10 +5164,10 @@
         <v>641</v>
       </c>
       <c r="M81">
-        <v>5.117004680187208</v>
+        <v>5.1170046801872084</v>
       </c>
       <c r="N81">
-        <v>0.6612903225806451</v>
+        <v>0.66129032258064513</v>
       </c>
       <c r="O81">
         <v>3</v>
@@ -5079,26 +5176,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>db984c32-ab5c-4019-a640-36b247da42ea</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>G108</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>119</v>
+      </c>
+      <c r="B82" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" t="s">
+        <v>230</v>
+      </c>
+      <c r="D82" t="s">
+        <v>18</v>
       </c>
       <c r="E82">
         <v>77</v>
@@ -5125,10 +5214,10 @@
         <v>1239</v>
       </c>
       <c r="M82">
-        <v>5.811138014527845</v>
+        <v>5.8111380145278453</v>
       </c>
       <c r="N82">
-        <v>0.6474820143884893</v>
+        <v>0.64748201438848929</v>
       </c>
       <c r="O82">
         <v>3</v>
@@ -5137,26 +5226,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>c52a32f5-1335-477a-8f1a-831747fa8a12</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>G108</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>120</v>
+      </c>
+      <c r="B83" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" t="s">
+        <v>230</v>
+      </c>
+      <c r="D83" t="s">
+        <v>20</v>
       </c>
       <c r="E83">
         <v>70</v>
@@ -5171,7 +5252,7 @@
         <v>1.62</v>
       </c>
       <c r="I83">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="J83">
         <v>3</v>
@@ -5183,10 +5264,10 @@
         <v>239</v>
       </c>
       <c r="M83">
-        <v>4.853556485355648</v>
+        <v>4.8535564853556483</v>
       </c>
       <c r="N83">
-        <v>0.7160493827160492</v>
+        <v>0.71604938271604923</v>
       </c>
       <c r="O83">
         <v>3</v>
@@ -5195,26 +5276,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>d260e9cc-4e82-4ee1-9d40-44bcef1769a0</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>G108</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>121</v>
+      </c>
+      <c r="B84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" t="s">
+        <v>230</v>
+      </c>
+      <c r="D84" t="s">
+        <v>22</v>
       </c>
       <c r="E84">
         <v>60</v>
@@ -5241,10 +5314,10 @@
         <v>227</v>
       </c>
       <c r="M84">
-        <v>4.229074889867841</v>
+        <v>4.2290748898678414</v>
       </c>
       <c r="N84">
-        <v>0.5680473372781065</v>
+        <v>0.56804733727810652</v>
       </c>
       <c r="O84">
         <v>3</v>
@@ -5253,26 +5326,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>eea0056c-4983-4fe2-81b1-2be266ad7d02</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>G108</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>122</v>
+      </c>
+      <c r="B85" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" t="s">
+        <v>230</v>
+      </c>
+      <c r="D85" t="s">
+        <v>24</v>
       </c>
       <c r="E85">
         <v>68</v>
@@ -5311,26 +5376,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>74399639-70df-4310-83c0-77e80b9d3e30</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>123</v>
+      </c>
+      <c r="B86" t="s">
+        <v>50</v>
+      </c>
+      <c r="C86" t="s">
+        <v>124</v>
+      </c>
+      <c r="D86" t="s">
+        <v>18</v>
       </c>
       <c r="E86">
         <v>69</v>
@@ -5357,10 +5414,10 @@
         <v>468</v>
       </c>
       <c r="M86">
-        <v>5.14957264957265</v>
+        <v>5.1495726495726499</v>
       </c>
       <c r="N86">
-        <v>0.5835351089588379</v>
+        <v>0.58353510895883787</v>
       </c>
       <c r="O86">
         <v>3</v>
@@ -5369,26 +5426,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>2f14ceef-5911-44b7-a6bc-18ddde1af0e1</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>125</v>
+      </c>
+      <c r="B87" t="s">
+        <v>50</v>
+      </c>
+      <c r="C87" t="s">
+        <v>124</v>
+      </c>
+      <c r="D87" t="s">
+        <v>20</v>
       </c>
       <c r="E87">
         <v>67</v>
@@ -5415,10 +5464,10 @@
         <v>378</v>
       </c>
       <c r="M87">
-        <v>4.100529100529101</v>
+        <v>4.1005291005291014</v>
       </c>
       <c r="N87">
-        <v>0.7524271844660194</v>
+        <v>0.75242718446601942</v>
       </c>
       <c r="O87">
         <v>3</v>
@@ -5427,26 +5476,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>b282349a-ab86-4b93-8e48-204ec86b3514</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>126</v>
+      </c>
+      <c r="B88" t="s">
+        <v>50</v>
+      </c>
+      <c r="C88" t="s">
+        <v>124</v>
+      </c>
+      <c r="D88" t="s">
+        <v>22</v>
       </c>
       <c r="E88">
         <v>74</v>
@@ -5473,10 +5514,10 @@
         <v>473</v>
       </c>
       <c r="M88">
-        <v>4.756871035940804</v>
+        <v>4.7568710359408044</v>
       </c>
       <c r="N88">
-        <v>0.648414985590778</v>
+        <v>0.64841498559077804</v>
       </c>
       <c r="O88">
         <v>3</v>
@@ -5485,26 +5526,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>50486ad0-e89e-43ed-9374-7bee2bde187e</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>127</v>
+      </c>
+      <c r="B89" t="s">
+        <v>50</v>
+      </c>
+      <c r="C89" t="s">
+        <v>124</v>
+      </c>
+      <c r="D89" t="s">
+        <v>24</v>
       </c>
       <c r="E89">
         <v>59</v>
@@ -5519,7 +5552,7 @@
         <v>3.35</v>
       </c>
       <c r="I89">
-        <v>2.24</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="J89">
         <v>7</v>
@@ -5534,7 +5567,7 @@
         <v>5.07936507936508</v>
       </c>
       <c r="N89">
-        <v>0.6686567164179105</v>
+        <v>0.66865671641791047</v>
       </c>
       <c r="O89">
         <v>3</v>
@@ -5543,26 +5576,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>00a9b780-f098-44c5-aca7-5c77501e18a8</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>G64</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>128</v>
+      </c>
+      <c r="B90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" t="s">
+        <v>129</v>
+      </c>
+      <c r="D90" t="s">
+        <v>18</v>
       </c>
       <c r="E90">
         <v>36</v>
@@ -5589,10 +5614,10 @@
         <v>221</v>
       </c>
       <c r="M90">
-        <v>1.493212669683258</v>
+        <v>1.4932126696832579</v>
       </c>
       <c r="N90">
-        <v>0.1964285714285715</v>
+        <v>0.19642857142857151</v>
       </c>
       <c r="O90">
         <v>3</v>
@@ -5601,26 +5626,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>f556d493-f62d-40a6-a4e1-58a94ff1eac0</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>G64</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>130</v>
+      </c>
+      <c r="B91" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" t="s">
+        <v>129</v>
+      </c>
+      <c r="D91" t="s">
+        <v>20</v>
       </c>
       <c r="E91">
         <v>62</v>
@@ -5635,7 +5652,7 @@
         <v>0.23</v>
       </c>
       <c r="I91">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J91">
         <v>3</v>
@@ -5647,10 +5664,10 @@
         <v>18</v>
       </c>
       <c r="M91">
-        <v>3.888888888888889</v>
+        <v>3.8888888888888888</v>
       </c>
       <c r="N91">
-        <v>0.3043478260869565</v>
+        <v>0.30434782608695649</v>
       </c>
       <c r="O91">
         <v>3</v>
@@ -5659,26 +5676,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>723222e2-d30e-48d4-92a2-f72949ca1e90</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>G64</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>131</v>
+      </c>
+      <c r="B92" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" t="s">
+        <v>129</v>
+      </c>
+      <c r="D92" t="s">
+        <v>22</v>
       </c>
       <c r="E92">
         <v>54</v>
@@ -5690,7 +5699,7 @@
         <v>19</v>
       </c>
       <c r="H92">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I92">
         <v>0.05</v>
@@ -5717,26 +5726,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>6ba1454f-bad6-4b1b-b01c-bbee963d01f1</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>G72</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>132</v>
+      </c>
+      <c r="B93" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" t="s">
+        <v>133</v>
+      </c>
+      <c r="D93" t="s">
+        <v>18</v>
       </c>
       <c r="E93">
         <v>80</v>
@@ -5763,10 +5764,10 @@
         <v>614</v>
       </c>
       <c r="M93">
-        <v>4.70684039087948</v>
+        <v>4.7068403908794796</v>
       </c>
       <c r="N93">
-        <v>0.7316455696202532</v>
+        <v>0.73164556962025318</v>
       </c>
       <c r="O93">
         <v>3</v>
@@ -5775,26 +5776,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>abe33b52-76be-4afc-8cab-eab148b7b5cc</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>G72</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>134</v>
+      </c>
+      <c r="B94" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" t="s">
+        <v>133</v>
+      </c>
+      <c r="D94" t="s">
+        <v>20</v>
       </c>
       <c r="E94">
         <v>67</v>
@@ -5821,10 +5814,10 @@
         <v>1387</v>
       </c>
       <c r="M94">
-        <v>5.291997116077866</v>
+        <v>5.2919971160778658</v>
       </c>
       <c r="N94">
-        <v>0.7850267379679144</v>
+        <v>0.78502673796791445</v>
       </c>
       <c r="O94">
         <v>3</v>
@@ -5833,26 +5826,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>13d9486d-7d80-4273-9eb5-0c1f6c5d2cd4</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>G72</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>135</v>
+      </c>
+      <c r="B95" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" t="s">
+        <v>133</v>
+      </c>
+      <c r="D95" t="s">
+        <v>22</v>
       </c>
       <c r="E95">
         <v>73</v>
@@ -5882,7 +5867,7 @@
         <v>5.25918944392083</v>
       </c>
       <c r="N95">
-        <v>0.7926136363636364</v>
+        <v>0.79261363636363635</v>
       </c>
       <c r="O95">
         <v>3</v>
@@ -5891,26 +5876,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>366cfa4e-2e3e-4e43-bf03-6225f794d5c5</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>G72</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>136</v>
+      </c>
+      <c r="B96" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" t="s">
+        <v>133</v>
+      </c>
+      <c r="D96" t="s">
+        <v>24</v>
       </c>
       <c r="E96">
         <v>67</v>
@@ -5937,7 +5914,7 @@
         <v>630</v>
       </c>
       <c r="M96">
-        <v>5.428571428571429</v>
+        <v>5.4285714285714288</v>
       </c>
       <c r="N96">
         <v>0.789838337182448</v>
@@ -5949,26 +5926,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>69e4da46-f7d4-4de9-a0c8-a8b756e39e5f</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>G108</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>137</v>
+      </c>
+      <c r="B97" t="s">
+        <v>50</v>
+      </c>
+      <c r="C97" t="s">
+        <v>229</v>
+      </c>
+      <c r="D97" t="s">
+        <v>18</v>
       </c>
       <c r="E97">
         <v>79</v>
@@ -5995,10 +5964,10 @@
         <v>137</v>
       </c>
       <c r="M97">
-        <v>4.37956204379562</v>
+        <v>4.3795620437956204</v>
       </c>
       <c r="N97">
-        <v>0.6593406593406593</v>
+        <v>0.65934065934065933</v>
       </c>
       <c r="O97">
         <v>3</v>
@@ -6007,26 +5976,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>e133eb89-128e-4c42-a69a-fa057030b1de</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>G108</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>138</v>
+      </c>
+      <c r="B98" t="s">
+        <v>50</v>
+      </c>
+      <c r="C98" t="s">
+        <v>229</v>
+      </c>
+      <c r="D98" t="s">
+        <v>20</v>
       </c>
       <c r="E98">
         <v>80</v>
@@ -6053,10 +6014,10 @@
         <v>296</v>
       </c>
       <c r="M98">
-        <v>4.45945945945946</v>
+        <v>4.4594594594594597</v>
       </c>
       <c r="N98">
-        <v>0.6534653465346535</v>
+        <v>0.65346534653465349</v>
       </c>
       <c r="O98">
         <v>3</v>
@@ -6065,26 +6026,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>4e52db5c-7995-48ee-9403-cff399d58478</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>G108</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>139</v>
+      </c>
+      <c r="B99" t="s">
+        <v>50</v>
+      </c>
+      <c r="C99" t="s">
+        <v>229</v>
+      </c>
+      <c r="D99" t="s">
+        <v>22</v>
       </c>
       <c r="E99">
         <v>78</v>
@@ -6099,7 +6052,7 @@
         <v>2.11</v>
       </c>
       <c r="I99">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J99">
         <v>5</v>
@@ -6111,10 +6064,10 @@
         <v>252</v>
       </c>
       <c r="M99">
-        <v>4.365079365079366</v>
+        <v>4.3650793650793656</v>
       </c>
       <c r="N99">
-        <v>0.5213270142180095</v>
+        <v>0.52132701421800953</v>
       </c>
       <c r="O99">
         <v>3</v>
@@ -6123,26 +6076,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>62c09399-4a6c-4244-a23d-88723cccf44d</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>G108</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>140</v>
+      </c>
+      <c r="B100" t="s">
+        <v>50</v>
+      </c>
+      <c r="C100" t="s">
+        <v>229</v>
+      </c>
+      <c r="D100" t="s">
+        <v>24</v>
       </c>
       <c r="E100">
         <v>83</v>
@@ -6169,10 +6114,10 @@
         <v>543</v>
       </c>
       <c r="M100">
-        <v>4.640883977900552</v>
+        <v>4.6408839779005522</v>
       </c>
       <c r="N100">
-        <v>0.6116504854368932</v>
+        <v>0.61165048543689315</v>
       </c>
       <c r="O100">
         <v>3</v>
@@ -6181,26 +6126,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>b4caa296-c3b2-43f2-bb09-3d16a1d3b9c5</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>G51</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>141</v>
+      </c>
+      <c r="B101" t="s">
+        <v>50</v>
+      </c>
+      <c r="C101" t="s">
+        <v>228</v>
+      </c>
+      <c r="D101" t="s">
+        <v>18</v>
       </c>
       <c r="E101">
         <v>70</v>
@@ -6227,10 +6164,10 @@
         <v>87</v>
       </c>
       <c r="M101">
-        <v>8.735632183908047</v>
+        <v>8.7356321839080469</v>
       </c>
       <c r="N101">
-        <v>0.5507246376811594</v>
+        <v>0.55072463768115942</v>
       </c>
       <c r="O101">
         <v>3</v>
@@ -6239,26 +6176,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>f68bca60-c8cf-4272-9448-3f28891a97cd</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>G51</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B102" t="s">
+        <v>50</v>
+      </c>
+      <c r="C102" t="s">
+        <v>228</v>
+      </c>
+      <c r="D102" t="s">
+        <v>20</v>
       </c>
       <c r="E102">
         <v>63</v>
@@ -6285,10 +6214,10 @@
         <v>476</v>
       </c>
       <c r="M102">
-        <v>4.516806722689076</v>
+        <v>4.5168067226890756</v>
       </c>
       <c r="N102">
-        <v>0.7491289198606271</v>
+        <v>0.74912891986062713</v>
       </c>
       <c r="O102">
         <v>3</v>
@@ -6297,26 +6226,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>e5a069e2-730b-412d-9d70-1d37d062c7ac</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>G51</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>143</v>
+      </c>
+      <c r="B103" t="s">
+        <v>50</v>
+      </c>
+      <c r="C103" t="s">
+        <v>228</v>
+      </c>
+      <c r="D103" t="s">
+        <v>22</v>
       </c>
       <c r="E103">
         <v>65</v>
@@ -6355,26 +6276,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>a7d8c69d-d1c5-4c6b-93c1-8d6485c86884</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>G51</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>144</v>
+      </c>
+      <c r="B104" t="s">
+        <v>50</v>
+      </c>
+      <c r="C104" t="s">
+        <v>228</v>
+      </c>
+      <c r="D104" t="s">
+        <v>24</v>
       </c>
       <c r="E104">
         <v>67</v>
@@ -6401,10 +6314,10 @@
         <v>770</v>
       </c>
       <c r="M104">
-        <v>5.194805194805195</v>
+        <v>5.1948051948051948</v>
       </c>
       <c r="N104">
-        <v>0.7168458781362007</v>
+        <v>0.71684587813620071</v>
       </c>
       <c r="O104">
         <v>3</v>
@@ -6413,26 +6326,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>97d768ce-5c92-406f-8fbc-40b16f2ec7ab</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>ST_PIONEIRA</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>145</v>
+      </c>
+      <c r="B105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" t="s">
+        <v>56</v>
+      </c>
+      <c r="D105" t="s">
+        <v>18</v>
       </c>
       <c r="E105">
         <v>64</v>
@@ -6444,7 +6349,7 @@
         <v>32</v>
       </c>
       <c r="H105">
-        <v>8.380000000000001</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="I105">
         <v>5.91</v>
@@ -6459,10 +6364,10 @@
         <v>1035</v>
       </c>
       <c r="M105">
-        <v>5.710144927536232</v>
+        <v>5.7101449275362324</v>
       </c>
       <c r="N105">
-        <v>0.7052505966587111</v>
+        <v>0.70525059665871115</v>
       </c>
       <c r="O105">
         <v>3</v>
@@ -6471,26 +6376,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>4257a960-5286-4d81-a656-0e02833bc22f</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>ST_PIONEIRA</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>146</v>
+      </c>
+      <c r="B106" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" t="s">
+        <v>56</v>
+      </c>
+      <c r="D106" t="s">
+        <v>20</v>
       </c>
       <c r="E106">
         <v>90</v>
@@ -6517,10 +6414,10 @@
         <v>503</v>
       </c>
       <c r="M106">
-        <v>5.904572564612327</v>
+        <v>5.9045725646123266</v>
       </c>
       <c r="N106">
-        <v>0.4597523219814242</v>
+        <v>0.45975232198142418</v>
       </c>
       <c r="O106">
         <v>3</v>
@@ -6529,26 +6426,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>480f07d9-015c-4788-9cdd-43da12b4d697</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>ST_PIONEIRA</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>147</v>
+      </c>
+      <c r="B107" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" t="s">
+        <v>56</v>
+      </c>
+      <c r="D107" t="s">
+        <v>22</v>
       </c>
       <c r="E107">
         <v>56</v>
@@ -6578,7 +6467,7 @@
         <v>4.754433833560709</v>
       </c>
       <c r="N107">
-        <v>0.722279792746114</v>
+        <v>0.72227979274611398</v>
       </c>
       <c r="O107">
         <v>3</v>
@@ -6587,26 +6476,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>d8be26b2-bd6f-4524-8824-a4abe7c0d2bf</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>ST_PIONEIRA</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>148</v>
+      </c>
+      <c r="B108" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" t="s">
+        <v>56</v>
+      </c>
+      <c r="D108" t="s">
+        <v>24</v>
       </c>
       <c r="E108">
         <v>65</v>
@@ -6621,7 +6502,7 @@
         <v>6.51</v>
       </c>
       <c r="I108">
-        <v>4.27</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="J108">
         <v>5</v>
@@ -6633,10 +6514,10 @@
         <v>699</v>
       </c>
       <c r="M108">
-        <v>6.108726752503576</v>
+        <v>6.1087267525035758</v>
       </c>
       <c r="N108">
-        <v>0.6559139784946236</v>
+        <v>0.65591397849462363</v>
       </c>
       <c r="O108">
         <v>3</v>
@@ -6645,26 +6526,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>16ba0ce8-d251-4ae0-b151-f09abad8cb15</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>G148</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>149</v>
+      </c>
+      <c r="B109" t="s">
+        <v>50</v>
+      </c>
+      <c r="C109" t="s">
+        <v>150</v>
+      </c>
+      <c r="D109" t="s">
+        <v>18</v>
       </c>
       <c r="E109">
         <v>57</v>
@@ -6691,7 +6564,7 @@
         <v>470</v>
       </c>
       <c r="M109">
-        <v>4.340425531914893</v>
+        <v>4.3404255319148932</v>
       </c>
       <c r="N109">
         <v>0.6107784431137725</v>
@@ -6703,26 +6576,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>72709096-1ca5-472e-9cf5-8ba44e8f61c8</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>G148</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>151</v>
+      </c>
+      <c r="B110" t="s">
+        <v>50</v>
+      </c>
+      <c r="C110" t="s">
+        <v>150</v>
+      </c>
+      <c r="D110" t="s">
+        <v>20</v>
       </c>
       <c r="E110">
         <v>62</v>
@@ -6737,7 +6602,7 @@
         <v>3.38</v>
       </c>
       <c r="I110">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="J110">
         <v>3</v>
@@ -6749,7 +6614,7 @@
         <v>466</v>
       </c>
       <c r="M110">
-        <v>5.257510729613734</v>
+        <v>5.2575107296137338</v>
       </c>
       <c r="N110">
         <v>0.7248520710059172</v>
@@ -6761,26 +6626,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>f78ed70b-90d7-4ea2-903e-9885ecb88a1e</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>G148</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>152</v>
+      </c>
+      <c r="B111" t="s">
+        <v>50</v>
+      </c>
+      <c r="C111" t="s">
+        <v>150</v>
+      </c>
+      <c r="D111" t="s">
+        <v>22</v>
       </c>
       <c r="E111">
         <v>68</v>
@@ -6807,10 +6664,10 @@
         <v>493</v>
       </c>
       <c r="M111">
-        <v>5.801217038539553</v>
+        <v>5.8012170385395532</v>
       </c>
       <c r="N111">
-        <v>0.7222222222222222</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="O111">
         <v>3</v>
@@ -6819,26 +6676,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>3d17e772-6f86-4da7-a63a-c62bee734473</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>G29</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>153</v>
+      </c>
+      <c r="B112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" t="s">
+        <v>154</v>
+      </c>
+      <c r="D112" t="s">
+        <v>18</v>
       </c>
       <c r="E112">
         <v>70</v>
@@ -6865,10 +6714,10 @@
         <v>612</v>
       </c>
       <c r="M112">
-        <v>6.241830065359477</v>
+        <v>6.2418300653594772</v>
       </c>
       <c r="N112">
-        <v>0.6797153024911031</v>
+        <v>0.67971530249110312</v>
       </c>
       <c r="O112">
         <v>3</v>
@@ -6877,26 +6726,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>4bb0e537-f199-4d0a-8a39-d83d4c9701c0</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>G29</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>155</v>
+      </c>
+      <c r="B113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" t="s">
+        <v>154</v>
+      </c>
+      <c r="D113" t="s">
+        <v>20</v>
       </c>
       <c r="E113">
         <v>60</v>
@@ -6908,7 +6749,7 @@
         <v>19</v>
       </c>
       <c r="H113">
-        <v>8.279999999999999</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="I113">
         <v>6.41</v>
@@ -6923,10 +6764,10 @@
         <v>1088</v>
       </c>
       <c r="M113">
-        <v>5.891544117647059</v>
+        <v>5.8915441176470589</v>
       </c>
       <c r="N113">
-        <v>0.7741545893719808</v>
+        <v>0.77415458937198078</v>
       </c>
       <c r="O113">
         <v>3</v>
@@ -6935,26 +6776,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>27ab26f6-967e-437b-88fd-68ae85bac202</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>G29</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>156</v>
+      </c>
+      <c r="B114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" t="s">
+        <v>154</v>
+      </c>
+      <c r="D114" t="s">
+        <v>22</v>
       </c>
       <c r="E114">
         <v>64</v>
@@ -6981,7 +6814,7 @@
         <v>931</v>
       </c>
       <c r="M114">
-        <v>5.413533834586466</v>
+        <v>5.4135338345864659</v>
       </c>
       <c r="N114">
         <v>0.7567567567567568</v>
@@ -6993,26 +6826,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>79ab9915-0f27-465b-87b5-9bfd04bcb0e8</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>G29</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>157</v>
+      </c>
+      <c r="B115" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" t="s">
+        <v>154</v>
+      </c>
+      <c r="D115" t="s">
+        <v>24</v>
       </c>
       <c r="E115">
         <v>70</v>
@@ -7039,10 +6864,10 @@
         <v>639</v>
       </c>
       <c r="M115">
-        <v>5.195618153364632</v>
+        <v>5.1956181533646317</v>
       </c>
       <c r="N115">
-        <v>0.7264770240700218</v>
+        <v>0.72647702407002179</v>
       </c>
       <c r="O115">
         <v>3</v>
@@ -7051,26 +6876,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>3eca5ca7-32a4-4d9f-a2a2-0935bac4515d</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>G223</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>158</v>
+      </c>
+      <c r="B116" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" t="s">
+        <v>159</v>
+      </c>
+      <c r="D116" t="s">
+        <v>18</v>
       </c>
       <c r="E116">
         <v>55</v>
@@ -7082,7 +6899,7 @@
         <v>22</v>
       </c>
       <c r="H116">
-        <v>4.94</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="I116">
         <v>3.58</v>
@@ -7097,7 +6914,7 @@
         <v>731</v>
       </c>
       <c r="M116">
-        <v>4.897400820793433</v>
+        <v>4.8974008207934334</v>
       </c>
       <c r="N116">
         <v>0.7246963562753036</v>
@@ -7109,26 +6926,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>5a656b43-cc88-42a3-baa2-4570191311c3</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>G223</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>160</v>
+      </c>
+      <c r="B117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" t="s">
+        <v>159</v>
+      </c>
+      <c r="D117" t="s">
+        <v>20</v>
       </c>
       <c r="E117">
         <v>50</v>
@@ -7155,10 +6964,10 @@
         <v>469</v>
       </c>
       <c r="M117">
-        <v>6.353944562899787</v>
+        <v>6.3539445628997866</v>
       </c>
       <c r="N117">
-        <v>0.6666666666666667</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="O117">
         <v>4</v>
@@ -7167,26 +6976,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>4c268db3-5281-44f0-868e-906f7f1272c4</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>G223</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>161</v>
+      </c>
+      <c r="B118" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118" t="s">
+        <v>159</v>
+      </c>
+      <c r="D118" t="s">
+        <v>22</v>
       </c>
       <c r="E118">
         <v>65</v>
@@ -7213,10 +7014,10 @@
         <v>669</v>
       </c>
       <c r="M118">
-        <v>5.47085201793722</v>
+        <v>5.4708520179372204</v>
       </c>
       <c r="N118">
-        <v>0.7120622568093385</v>
+        <v>0.71206225680933855</v>
       </c>
       <c r="O118">
         <v>4</v>
@@ -7225,26 +7026,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>edbb5998-b7b0-4c94-a00d-0c09e8721919</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>G223</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>162</v>
+      </c>
+      <c r="B119" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" t="s">
+        <v>159</v>
+      </c>
+      <c r="D119" t="s">
+        <v>24</v>
       </c>
       <c r="E119">
         <v>63</v>
@@ -7271,7 +7064,7 @@
         <v>558</v>
       </c>
       <c r="M119">
-        <v>5.64516129032258</v>
+        <v>5.6451612903225801</v>
       </c>
       <c r="N119">
         <v>0.6</v>
@@ -7283,26 +7076,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>85988961-e0f3-4011-a86b-40f27235301d</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>G69</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>163</v>
+      </c>
+      <c r="B120" t="s">
+        <v>50</v>
+      </c>
+      <c r="C120" t="s">
+        <v>225</v>
+      </c>
+      <c r="D120" t="s">
+        <v>18</v>
       </c>
       <c r="E120">
         <v>60</v>
@@ -7332,7 +7117,7 @@
         <v>5.329619312906221</v>
       </c>
       <c r="N120">
-        <v>0.6745005875440658</v>
+        <v>0.67450058754406583</v>
       </c>
       <c r="O120">
         <v>4</v>
@@ -7341,26 +7126,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>3e655e2f-4fe4-45d9-850f-bfe3e8745efb</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>G69</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>164</v>
+      </c>
+      <c r="B121" t="s">
+        <v>50</v>
+      </c>
+      <c r="C121" t="s">
+        <v>225</v>
+      </c>
+      <c r="D121" t="s">
+        <v>20</v>
       </c>
       <c r="E121">
         <v>55</v>
@@ -7387,10 +7164,10 @@
         <v>1141</v>
       </c>
       <c r="M121">
-        <v>4.951796669588081</v>
+        <v>4.9517966695880808</v>
       </c>
       <c r="N121">
-        <v>0.7803867403314917</v>
+        <v>0.78038674033149169</v>
       </c>
       <c r="O121">
         <v>4</v>
@@ -7399,26 +7176,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>dab569ea-7424-43d3-b13d-2c622414c687</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>G228</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>165</v>
+      </c>
+      <c r="B122" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122" t="s">
+        <v>166</v>
+      </c>
+      <c r="D122" t="s">
+        <v>18</v>
       </c>
       <c r="E122">
         <v>69</v>
@@ -7430,7 +7199,7 @@
         <v>38</v>
       </c>
       <c r="H122">
-        <v>8.210000000000001</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="I122">
         <v>5.3</v>
@@ -7445,10 +7214,10 @@
         <v>1002</v>
       </c>
       <c r="M122">
-        <v>5.289421157684631</v>
+        <v>5.2894211576846306</v>
       </c>
       <c r="N122">
-        <v>0.6455542021924482</v>
+        <v>0.64555420219244819</v>
       </c>
       <c r="O122">
         <v>4</v>
@@ -7457,26 +7226,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>9555dd5a-de04-4598-ad02-d767592b1d13</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>G228</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>167</v>
+      </c>
+      <c r="B123" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123" t="s">
+        <v>166</v>
+      </c>
+      <c r="D123" t="s">
+        <v>20</v>
       </c>
       <c r="E123">
         <v>76</v>
@@ -7503,7 +7264,7 @@
         <v>592</v>
       </c>
       <c r="M123">
-        <v>6.283783783783784</v>
+        <v>6.2837837837837842</v>
       </c>
       <c r="N123">
         <v>0.5971107544141252</v>
@@ -7515,26 +7276,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>d227c6ad-31ad-4615-b506-9227e520a36f</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>G228</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>168</v>
+      </c>
+      <c r="B124" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124" t="s">
+        <v>166</v>
+      </c>
+      <c r="D124" t="s">
+        <v>22</v>
       </c>
       <c r="E124">
         <v>76</v>
@@ -7561,10 +7314,10 @@
         <v>770</v>
       </c>
       <c r="M124">
-        <v>4.805194805194805</v>
+        <v>4.8051948051948052</v>
       </c>
       <c r="N124">
-        <v>0.6445993031358885</v>
+        <v>0.64459930313588854</v>
       </c>
       <c r="O124">
         <v>4</v>
@@ -7573,26 +7326,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>1ef7aa9f-6d88-42c0-a368-c412922c01ad</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>G228</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>169</v>
+      </c>
+      <c r="B125" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125" t="s">
+        <v>166</v>
+      </c>
+      <c r="D125" t="s">
+        <v>24</v>
       </c>
       <c r="E125">
         <v>70</v>
@@ -7619,10 +7364,10 @@
         <v>59</v>
       </c>
       <c r="M125">
-        <v>6.271186440677966</v>
+        <v>6.2711864406779663</v>
       </c>
       <c r="N125">
-        <v>0.4302325581395349</v>
+        <v>0.43023255813953493</v>
       </c>
       <c r="O125">
         <v>4</v>
@@ -7631,26 +7376,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>23f82fb2-47ed-4f64-ad6f-052d843b5d1e</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>G195</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>170</v>
+      </c>
+      <c r="B126" t="s">
+        <v>50</v>
+      </c>
+      <c r="C126" t="s">
+        <v>171</v>
+      </c>
+      <c r="D126" t="s">
+        <v>18</v>
       </c>
       <c r="E126">
         <v>70</v>
@@ -7677,7 +7414,7 @@
         <v>170</v>
       </c>
       <c r="M126">
-        <v>3.529411764705882</v>
+        <v>3.5294117647058818</v>
       </c>
       <c r="N126">
         <v>0.5</v>
@@ -7689,26 +7426,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>45e4cc2e-8c11-476a-a3fe-12b9459aa694</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>G195</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>172</v>
+      </c>
+      <c r="B127" t="s">
+        <v>50</v>
+      </c>
+      <c r="C127" t="s">
+        <v>171</v>
+      </c>
+      <c r="D127" t="s">
+        <v>20</v>
       </c>
       <c r="E127">
         <v>68</v>
@@ -7735,10 +7464,10 @@
         <v>823</v>
       </c>
       <c r="M127">
-        <v>4.738760631834751</v>
+        <v>4.7387606318347508</v>
       </c>
       <c r="N127">
-        <v>0.7330827067669172</v>
+        <v>0.73308270676691722</v>
       </c>
       <c r="O127">
         <v>4</v>
@@ -7747,26 +7476,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>9f6278bf-bc34-4a7c-bcd4-12a4d8d4a17e</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>G195</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>173</v>
+      </c>
+      <c r="B128" t="s">
+        <v>50</v>
+      </c>
+      <c r="C128" t="s">
+        <v>171</v>
+      </c>
+      <c r="D128" t="s">
+        <v>22</v>
       </c>
       <c r="E128">
         <v>60</v>
@@ -7793,10 +7514,10 @@
         <v>851</v>
       </c>
       <c r="M128">
-        <v>4.91186839012926</v>
+        <v>4.9118683901292597</v>
       </c>
       <c r="N128">
-        <v>0.755877034358047</v>
+        <v>0.75587703435804698</v>
       </c>
       <c r="O128">
         <v>4</v>
@@ -7805,26 +7526,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>e7e3a31a-8974-42a2-9229-d7b7f3138eaf</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>G195</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>174</v>
+      </c>
+      <c r="B129" t="s">
+        <v>50</v>
+      </c>
+      <c r="C129" t="s">
+        <v>171</v>
+      </c>
+      <c r="D129" t="s">
+        <v>24</v>
       </c>
       <c r="E129">
         <v>60</v>
@@ -7863,26 +7576,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>f9e5c543-d647-425b-a03d-21c43026720a</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>G11</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>175</v>
+      </c>
+      <c r="B130" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" t="s">
+        <v>176</v>
+      </c>
+      <c r="D130" t="s">
+        <v>18</v>
       </c>
       <c r="E130">
         <v>50</v>
@@ -7909,10 +7614,10 @@
         <v>264</v>
       </c>
       <c r="M130">
-        <v>4.507575757575757</v>
+        <v>4.5075757575757569</v>
       </c>
       <c r="N130">
-        <v>0.5891089108910891</v>
+        <v>0.58910891089108908</v>
       </c>
       <c r="O130">
         <v>4</v>
@@ -7921,26 +7626,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>55cee5c3-4573-48ab-9108-d81b5fb3791e</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>G11</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>177</v>
+      </c>
+      <c r="B131" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" t="s">
+        <v>176</v>
+      </c>
+      <c r="D131" t="s">
+        <v>20</v>
       </c>
       <c r="E131">
         <v>55</v>
@@ -7967,10 +7664,10 @@
         <v>561</v>
       </c>
       <c r="M131">
-        <v>4.652406417112299</v>
+        <v>4.6524064171122994</v>
       </c>
       <c r="N131">
-        <v>0.7653958944281525</v>
+        <v>0.76539589442815248</v>
       </c>
       <c r="O131">
         <v>4</v>
@@ -7979,26 +7676,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>3b1121ba-0537-4633-bd51-072b735b0505</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>G11</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>178</v>
+      </c>
+      <c r="B132" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" t="s">
+        <v>176</v>
+      </c>
+      <c r="D132" t="s">
+        <v>22</v>
       </c>
       <c r="E132">
         <v>63</v>
@@ -8025,10 +7714,10 @@
         <v>686</v>
       </c>
       <c r="M132">
-        <v>4.912536443148689</v>
+        <v>4.9125364431486886</v>
       </c>
       <c r="N132">
-        <v>0.7782909930715936</v>
+        <v>0.77829099307159355</v>
       </c>
       <c r="O132">
         <v>4</v>
@@ -8037,26 +7726,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>a1426e78-6bc2-4ce4-9d58-0777384c066d</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>G11</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>179</v>
+      </c>
+      <c r="B133" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133" t="s">
+        <v>176</v>
+      </c>
+      <c r="D133" t="s">
+        <v>24</v>
       </c>
       <c r="E133">
         <v>65</v>
@@ -8086,7 +7767,7 @@
         <v>5.5</v>
       </c>
       <c r="N133">
-        <v>0.7252747252747253</v>
+        <v>0.72527472527472525</v>
       </c>
       <c r="O133">
         <v>4</v>
@@ -8095,26 +7776,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>1911e077-52f7-437b-b1f5-0c6d2cb9ee65</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>ST_PIONEIRA</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>180</v>
+      </c>
+      <c r="B134" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" t="s">
+        <v>56</v>
+      </c>
+      <c r="D134" t="s">
+        <v>18</v>
       </c>
       <c r="E134">
         <v>65</v>
@@ -8141,10 +7814,10 @@
         <v>387</v>
       </c>
       <c r="M134">
-        <v>5.012919896640827</v>
+        <v>5.0129198966408266</v>
       </c>
       <c r="N134">
-        <v>0.8083333333333333</v>
+        <v>0.80833333333333335</v>
       </c>
       <c r="O134">
         <v>4</v>
@@ -8153,26 +7826,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>7b7b10f2-bb3a-4de5-85b5-fe58c1849f15</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>ST_PIONEIRA</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>181</v>
+      </c>
+      <c r="B135" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" t="s">
+        <v>56</v>
+      </c>
+      <c r="D135" t="s">
+        <v>20</v>
       </c>
       <c r="E135">
         <v>50</v>
@@ -8199,10 +7864,10 @@
         <v>316</v>
       </c>
       <c r="M135">
-        <v>3.924050632911393</v>
+        <v>3.9240506329113929</v>
       </c>
       <c r="N135">
-        <v>0.7294117647058823</v>
+        <v>0.72941176470588232</v>
       </c>
       <c r="O135">
         <v>4</v>
@@ -8211,26 +7876,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>abb415de-58b6-48ca-bf66-7885932d0121</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>ST_PIONEIRA</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>182</v>
+      </c>
+      <c r="B136" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" t="s">
+        <v>56</v>
+      </c>
+      <c r="D136" t="s">
+        <v>22</v>
       </c>
       <c r="E136">
         <v>53</v>
@@ -8257,10 +7914,10 @@
         <v>379</v>
       </c>
       <c r="M136">
-        <v>5.197889182058047</v>
+        <v>5.1978891820580468</v>
       </c>
       <c r="N136">
-        <v>0.7462121212121212</v>
+        <v>0.74621212121212122</v>
       </c>
       <c r="O136">
         <v>4</v>
@@ -8269,26 +7926,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>96305c1e-a538-4c79-bd93-306c68e225d8</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>ST_PIONEIRA</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>183</v>
+      </c>
+      <c r="B137" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" t="s">
+        <v>56</v>
+      </c>
+      <c r="D137" t="s">
+        <v>24</v>
       </c>
       <c r="E137">
         <v>70</v>
@@ -8315,10 +7964,10 @@
         <v>380</v>
       </c>
       <c r="M137">
-        <v>6.078947368421053</v>
+        <v>6.0789473684210531</v>
       </c>
       <c r="N137">
-        <v>0.652542372881356</v>
+        <v>0.65254237288135597</v>
       </c>
       <c r="O137">
         <v>4</v>
@@ -8327,26 +7976,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>183ed2b7-2f3a-4a63-b8e9-9d6ec9d1154b</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>G71</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>184</v>
+      </c>
+      <c r="B138" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138" t="s">
+        <v>226</v>
+      </c>
+      <c r="D138" t="s">
+        <v>18</v>
       </c>
       <c r="E138">
         <v>55</v>
@@ -8373,10 +8014,10 @@
         <v>328</v>
       </c>
       <c r="M138">
-        <v>4.390243902439024</v>
+        <v>4.3902439024390238</v>
       </c>
       <c r="N138">
-        <v>0.6697674418604651</v>
+        <v>0.66976744186046511</v>
       </c>
       <c r="O138">
         <v>4</v>
@@ -8385,26 +8026,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>f59b8000-253e-47e8-8666-0dc4792aa10e</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>G71</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>185</v>
+      </c>
+      <c r="B139" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" t="s">
+        <v>226</v>
+      </c>
+      <c r="D139" t="s">
+        <v>20</v>
       </c>
       <c r="E139">
         <v>57</v>
@@ -8431,10 +8064,10 @@
         <v>262</v>
       </c>
       <c r="M139">
-        <v>3.969465648854962</v>
+        <v>3.9694656488549618</v>
       </c>
       <c r="N139">
-        <v>0.5445026178010471</v>
+        <v>0.54450261780104714</v>
       </c>
       <c r="O139">
         <v>4</v>
@@ -8443,26 +8076,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>a70b88ed-8145-454d-9163-910f3cacc9de</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>G71</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>186</v>
+      </c>
+      <c r="B140" t="s">
+        <v>17</v>
+      </c>
+      <c r="C140" t="s">
+        <v>226</v>
+      </c>
+      <c r="D140" t="s">
+        <v>22</v>
       </c>
       <c r="E140">
         <v>60</v>
@@ -8489,10 +8114,10 @@
         <v>892</v>
       </c>
       <c r="M140">
-        <v>4.663677130044843</v>
+        <v>4.6636771300448432</v>
       </c>
       <c r="N140">
-        <v>0.6819672131147542</v>
+        <v>0.68196721311475417</v>
       </c>
       <c r="O140">
         <v>4</v>
@@ -8501,26 +8126,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>b3aedfe2-5f5b-4116-af8e-c44f60e85bd1</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>G71</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>187</v>
+      </c>
+      <c r="B141" t="s">
+        <v>17</v>
+      </c>
+      <c r="C141" t="s">
+        <v>226</v>
+      </c>
+      <c r="D141" t="s">
+        <v>24</v>
       </c>
       <c r="E141">
         <v>75</v>
@@ -8547,10 +8164,10 @@
         <v>666</v>
       </c>
       <c r="M141">
-        <v>4.534534534534535</v>
+        <v>4.5345345345345347</v>
       </c>
       <c r="N141">
-        <v>0.6466809421841542</v>
+        <v>0.64668094218415417</v>
       </c>
       <c r="O141">
         <v>4</v>
@@ -8559,26 +8176,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>45b8380d-a72d-41fe-b7ab-c9bb2cbe1b3c</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>G224</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>188</v>
+      </c>
+      <c r="B142" t="s">
+        <v>17</v>
+      </c>
+      <c r="C142" t="s">
+        <v>189</v>
+      </c>
+      <c r="D142" t="s">
+        <v>18</v>
       </c>
       <c r="E142">
         <v>69</v>
@@ -8593,7 +8202,7 @@
         <v>1.8</v>
       </c>
       <c r="I142">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J142">
         <v>3</v>
@@ -8605,7 +8214,7 @@
         <v>236</v>
       </c>
       <c r="M142">
-        <v>4.703389830508475</v>
+        <v>4.7033898305084749</v>
       </c>
       <c r="N142">
         <v>0.6166666666666667</v>
@@ -8617,26 +8226,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>a251a387-f6f0-4bf3-8709-4df2b86c4e3f</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>G224</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>190</v>
+      </c>
+      <c r="B143" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" t="s">
+        <v>189</v>
+      </c>
+      <c r="D143" t="s">
+        <v>20</v>
       </c>
       <c r="E143">
         <v>65</v>
@@ -8666,7 +8267,7 @@
         <v>4.353369763205829</v>
       </c>
       <c r="N143">
-        <v>0.6967930029154519</v>
+        <v>0.69679300291545188</v>
       </c>
       <c r="O143">
         <v>4</v>
@@ -8675,26 +8276,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>5b8d4be8-018a-4352-9ce7-dc8ad05ee212</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>G70</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>191</v>
+      </c>
+      <c r="B144" t="s">
+        <v>50</v>
+      </c>
+      <c r="C144" t="s">
+        <v>192</v>
+      </c>
+      <c r="D144" t="s">
+        <v>18</v>
       </c>
       <c r="E144">
         <v>52</v>
@@ -8706,7 +8299,7 @@
         <v>27</v>
       </c>
       <c r="H144">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="I144">
         <v>1.85</v>
@@ -8724,7 +8317,7 @@
         <v>5.522388059701492</v>
       </c>
       <c r="N144">
-        <v>0.7254901960784315</v>
+        <v>0.72549019607843146</v>
       </c>
       <c r="O144">
         <v>5</v>
@@ -8733,26 +8326,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>3d0d5f74-b940-42a6-a25c-015d4173f008</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>G70</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>193</v>
+      </c>
+      <c r="B145" t="s">
+        <v>50</v>
+      </c>
+      <c r="C145" t="s">
+        <v>192</v>
+      </c>
+      <c r="D145" t="s">
+        <v>20</v>
       </c>
       <c r="E145">
         <v>53</v>
@@ -8779,10 +8364,10 @@
         <v>141</v>
       </c>
       <c r="M145">
-        <v>5.319148936170213</v>
+        <v>5.3191489361702127</v>
       </c>
       <c r="N145">
-        <v>0.4966887417218543</v>
+        <v>0.49668874172185429</v>
       </c>
       <c r="O145">
         <v>5</v>
@@ -8791,26 +8376,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>f86463b2-155a-4ad3-a1b2-895a380cc9da</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>G70</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>194</v>
+      </c>
+      <c r="B146" t="s">
+        <v>50</v>
+      </c>
+      <c r="C146" t="s">
+        <v>192</v>
+      </c>
+      <c r="D146" t="s">
+        <v>22</v>
       </c>
       <c r="E146">
         <v>68</v>
@@ -8837,10 +8414,10 @@
         <v>109</v>
       </c>
       <c r="M146">
-        <v>5.871559633027523</v>
+        <v>5.8715596330275233</v>
       </c>
       <c r="N146">
-        <v>0.5470085470085471</v>
+        <v>0.54700854700854706</v>
       </c>
       <c r="O146">
         <v>5</v>
@@ -8849,26 +8426,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>2732f0f4-1beb-487d-8835-567c913d2b56</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>G70</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>195</v>
+      </c>
+      <c r="B147" t="s">
+        <v>50</v>
+      </c>
+      <c r="C147" t="s">
+        <v>192</v>
+      </c>
+      <c r="D147" t="s">
+        <v>24</v>
       </c>
       <c r="E147">
         <v>60</v>
@@ -8895,10 +8464,10 @@
         <v>51</v>
       </c>
       <c r="M147">
-        <v>6.470588235294118</v>
+        <v>6.4705882352941178</v>
       </c>
       <c r="N147">
-        <v>0.452054794520548</v>
+        <v>0.45205479452054798</v>
       </c>
       <c r="O147">
         <v>5</v>
@@ -8907,26 +8476,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>27a5473e-76a5-4897-bba2-f463cffd8f1c</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>G218</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>196</v>
+      </c>
+      <c r="B148" t="s">
+        <v>17</v>
+      </c>
+      <c r="C148" t="s">
+        <v>197</v>
+      </c>
+      <c r="D148" t="s">
+        <v>18</v>
       </c>
       <c r="E148">
         <v>50</v>
@@ -8953,10 +8514,10 @@
         <v>238</v>
       </c>
       <c r="M148">
-        <v>3.571428571428571</v>
+        <v>3.5714285714285712</v>
       </c>
       <c r="N148">
-        <v>0.6692913385826771</v>
+        <v>0.66929133858267709</v>
       </c>
       <c r="O148">
         <v>5</v>
@@ -8965,26 +8526,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>6bd11461-3ccc-4515-b4b4-8bdeae3476db</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>G218</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>198</v>
+      </c>
+      <c r="B149" t="s">
+        <v>17</v>
+      </c>
+      <c r="C149" t="s">
+        <v>197</v>
+      </c>
+      <c r="D149" t="s">
+        <v>20</v>
       </c>
       <c r="E149">
         <v>58</v>
@@ -8996,7 +8549,7 @@
         <v>22</v>
       </c>
       <c r="H149">
-        <v>2.01</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="I149">
         <v>1.28</v>
@@ -9014,7 +8567,7 @@
         <v>4.555160142348754</v>
       </c>
       <c r="N149">
-        <v>0.63681592039801</v>
+        <v>0.63681592039801005</v>
       </c>
       <c r="O149">
         <v>5</v>
@@ -9023,26 +8576,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>fad99613-1209-4374-b0d5-e6299e6c406f</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>G218</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>199</v>
+      </c>
+      <c r="B150" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150" t="s">
+        <v>197</v>
+      </c>
+      <c r="D150" t="s">
+        <v>22</v>
       </c>
       <c r="E150">
         <v>50</v>
@@ -9072,7 +8617,7 @@
         <v>3.392070484581498</v>
       </c>
       <c r="N150">
-        <v>0.5923076923076923</v>
+        <v>0.59230769230769231</v>
       </c>
       <c r="O150">
         <v>5</v>
@@ -9081,26 +8626,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>63576a77-83f2-4451-9940-8837f13f56b4</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>G218</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>200</v>
+      </c>
+      <c r="B151" t="s">
+        <v>17</v>
+      </c>
+      <c r="C151" t="s">
+        <v>197</v>
+      </c>
+      <c r="D151" t="s">
+        <v>24</v>
       </c>
       <c r="E151">
         <v>40</v>
@@ -9127,7 +8664,7 @@
         <v>18</v>
       </c>
       <c r="M151">
-        <v>6.111111111111112</v>
+        <v>6.1111111111111116</v>
       </c>
       <c r="N151">
         <v>0.6875</v>
@@ -9139,26 +8676,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>eec00abe-942c-4ebc-bef1-483b691ff36e</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>201</v>
+      </c>
+      <c r="B152" t="s">
+        <v>17</v>
+      </c>
+      <c r="C152" t="s">
+        <v>202</v>
+      </c>
+      <c r="D152" t="s">
+        <v>18</v>
       </c>
       <c r="E152">
         <v>49</v>
@@ -9188,7 +8717,7 @@
         <v>3.195876288659794</v>
       </c>
       <c r="N152">
-        <v>0.4366197183098592</v>
+        <v>0.43661971830985918</v>
       </c>
       <c r="O152">
         <v>5</v>
@@ -9197,26 +8726,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>27d6d5ab-8cf4-4949-a33f-aebf51d01c69</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>203</v>
+      </c>
+      <c r="B153" t="s">
+        <v>17</v>
+      </c>
+      <c r="C153" t="s">
+        <v>202</v>
+      </c>
+      <c r="D153" t="s">
+        <v>20</v>
       </c>
       <c r="E153">
         <v>60</v>
@@ -9228,7 +8749,7 @@
         <v>26</v>
       </c>
       <c r="H153">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I153">
         <v>0.71</v>
@@ -9243,10 +8764,10 @@
         <v>147</v>
       </c>
       <c r="M153">
-        <v>4.829931972789116</v>
+        <v>4.8299319727891161</v>
       </c>
       <c r="N153">
-        <v>0.6173913043478261</v>
+        <v>0.61739130434782608</v>
       </c>
       <c r="O153">
         <v>5</v>
@@ -9255,26 +8776,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>6e258ac8-8bf4-4351-906f-4fb8b8d37adb</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>204</v>
+      </c>
+      <c r="B154" t="s">
+        <v>17</v>
+      </c>
+      <c r="C154" t="s">
+        <v>202</v>
+      </c>
+      <c r="D154" t="s">
+        <v>22</v>
       </c>
       <c r="E154">
         <v>69</v>
@@ -9301,10 +8814,10 @@
         <v>138</v>
       </c>
       <c r="M154">
-        <v>3.478260869565217</v>
+        <v>3.4782608695652169</v>
       </c>
       <c r="N154">
-        <v>0.4948453608247423</v>
+        <v>0.49484536082474229</v>
       </c>
       <c r="O154">
         <v>5</v>
@@ -9313,26 +8826,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>9b158211-ec56-4938-ad4c-68f35f8fcc7c</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>205</v>
+      </c>
+      <c r="B155" t="s">
+        <v>17</v>
+      </c>
+      <c r="C155" t="s">
+        <v>202</v>
+      </c>
+      <c r="D155" t="s">
+        <v>24</v>
       </c>
       <c r="E155">
         <v>63</v>
@@ -9344,7 +8849,7 @@
         <v>25</v>
       </c>
       <c r="H155">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I155">
         <v>0.65</v>
@@ -9359,10 +8864,10 @@
         <v>152</v>
       </c>
       <c r="M155">
-        <v>4.276315789473684</v>
+        <v>4.2763157894736841</v>
       </c>
       <c r="N155">
-        <v>0.5652173913043479</v>
+        <v>0.56521739130434789</v>
       </c>
       <c r="O155">
         <v>5</v>
@@ -9371,26 +8876,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>b4c3d54f-da18-41e9-bfeb-37bdb640ec26</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>G63</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>206</v>
+      </c>
+      <c r="B156" t="s">
+        <v>17</v>
+      </c>
+      <c r="C156" t="s">
+        <v>207</v>
+      </c>
+      <c r="D156" t="s">
+        <v>18</v>
       </c>
       <c r="E156">
         <v>72</v>
@@ -9417,10 +8914,10 @@
         <v>411</v>
       </c>
       <c r="M156">
-        <v>4.087591240875912</v>
+        <v>4.0875912408759119</v>
       </c>
       <c r="N156">
-        <v>0.5153374233128835</v>
+        <v>0.51533742331288346</v>
       </c>
       <c r="O156">
         <v>5</v>
@@ -9429,26 +8926,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>c671e30d-0041-4f1f-a19a-17724c64d603</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>G63</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>208</v>
+      </c>
+      <c r="B157" t="s">
+        <v>17</v>
+      </c>
+      <c r="C157" t="s">
+        <v>207</v>
+      </c>
+      <c r="D157" t="s">
+        <v>20</v>
       </c>
       <c r="E157">
         <v>77</v>
@@ -9475,10 +8964,10 @@
         <v>227</v>
       </c>
       <c r="M157">
-        <v>4.625550660792952</v>
+        <v>4.6255506607929524</v>
       </c>
       <c r="N157">
-        <v>0.2229299363057325</v>
+        <v>0.22292993630573249</v>
       </c>
       <c r="O157">
         <v>5</v>
@@ -9487,26 +8976,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>813c3f0c-f9ac-4f9a-b08c-83913e543694</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>G63</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>209</v>
+      </c>
+      <c r="B158" t="s">
+        <v>17</v>
+      </c>
+      <c r="C158" t="s">
+        <v>207</v>
+      </c>
+      <c r="D158" t="s">
+        <v>22</v>
       </c>
       <c r="E158">
         <v>65</v>
@@ -9533,7 +9014,7 @@
         <v>922</v>
       </c>
       <c r="M158">
-        <v>4.826464208242951</v>
+        <v>4.8264642082429514</v>
       </c>
       <c r="N158">
         <v>0.6095890410958904</v>
@@ -9545,26 +9026,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>6fe29997-6522-46e3-92b3-1dcbf0549cb8</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>G63</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>210</v>
+      </c>
+      <c r="B159" t="s">
+        <v>17</v>
+      </c>
+      <c r="C159" t="s">
+        <v>207</v>
+      </c>
+      <c r="D159" t="s">
+        <v>24</v>
       </c>
       <c r="E159">
         <v>73</v>
@@ -9591,10 +9064,10 @@
         <v>375</v>
       </c>
       <c r="M159">
-        <v>4.800000000000001</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="N159">
-        <v>0.5454545454545455</v>
+        <v>0.54545454545454553</v>
       </c>
       <c r="O159">
         <v>5</v>
@@ -9603,26 +9076,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>5aa4e11b-70df-427a-b385-6b83159d493a</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>G104</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>211</v>
+      </c>
+      <c r="B160" t="s">
+        <v>17</v>
+      </c>
+      <c r="C160" t="s">
+        <v>212</v>
+      </c>
+      <c r="D160" t="s">
+        <v>18</v>
       </c>
       <c r="E160">
         <v>46</v>
@@ -9649,10 +9114,10 @@
         <v>202</v>
       </c>
       <c r="M160">
-        <v>5.99009900990099</v>
+        <v>5.9900990099009901</v>
       </c>
       <c r="N160">
-        <v>0.7159763313609467</v>
+        <v>0.71597633136094674</v>
       </c>
       <c r="O160">
         <v>5</v>
@@ -9661,26 +9126,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>95f5bea6-f395-419e-83a3-7d9463f5c0c9</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>G104</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>213</v>
+      </c>
+      <c r="B161" t="s">
+        <v>17</v>
+      </c>
+      <c r="C161" t="s">
+        <v>212</v>
+      </c>
+      <c r="D161" t="s">
+        <v>20</v>
       </c>
       <c r="E161">
         <v>50</v>
@@ -9695,7 +9152,7 @@
         <v>5.14</v>
       </c>
       <c r="I161">
-        <v>2.53</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="J161">
         <v>5</v>
@@ -9707,7 +9164,7 @@
         <v>417</v>
       </c>
       <c r="M161">
-        <v>6.067146282973621</v>
+        <v>6.0671462829736207</v>
       </c>
       <c r="N161">
         <v>0.4922178988326848</v>
@@ -9719,26 +9176,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>0639bfa8-e824-4fbb-9512-63b0dd5b9719</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>G104</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>214</v>
+      </c>
+      <c r="B162" t="s">
+        <v>17</v>
+      </c>
+      <c r="C162" t="s">
+        <v>212</v>
+      </c>
+      <c r="D162" t="s">
+        <v>22</v>
       </c>
       <c r="E162">
         <v>50</v>
@@ -9765,7 +9214,7 @@
         <v>316</v>
       </c>
       <c r="M162">
-        <v>3.987341772151899</v>
+        <v>3.9873417721518991</v>
       </c>
       <c r="N162">
         <v>0.3559322033898305</v>
@@ -9777,26 +9226,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>89d94b0b-7129-4e9c-ac76-700c909701c0</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>G104</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>215</v>
+      </c>
+      <c r="B163" t="s">
+        <v>17</v>
+      </c>
+      <c r="C163" t="s">
+        <v>212</v>
+      </c>
+      <c r="D163" t="s">
+        <v>24</v>
       </c>
       <c r="E163">
         <v>68</v>
@@ -9823,10 +9264,10 @@
         <v>172</v>
       </c>
       <c r="M163">
-        <v>6.046511627906978</v>
+        <v>6.0465116279069777</v>
       </c>
       <c r="N163">
-        <v>0.5942857142857143</v>
+        <v>0.59428571428571431</v>
       </c>
       <c r="O163">
         <v>5</v>
@@ -9835,26 +9276,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>b7bfb8e2-0cbc-4eca-a20c-cfb4ae0ad102</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>ST_PIONEIRA</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>216</v>
+      </c>
+      <c r="B164" t="s">
+        <v>17</v>
+      </c>
+      <c r="C164" t="s">
+        <v>56</v>
+      </c>
+      <c r="D164" t="s">
+        <v>18</v>
       </c>
       <c r="E164">
         <v>80</v>
@@ -9881,10 +9314,10 @@
         <v>493</v>
       </c>
       <c r="M164">
-        <v>4.726166328600406</v>
+        <v>4.7261663286004056</v>
       </c>
       <c r="N164">
-        <v>0.7689768976897691</v>
+        <v>0.76897689768976907</v>
       </c>
       <c r="O164">
         <v>5</v>
@@ -9893,26 +9326,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>62276826-23e6-498f-a062-8fd3c55a1485</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>ST_PIONEIRA</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>217</v>
+      </c>
+      <c r="B165" t="s">
+        <v>17</v>
+      </c>
+      <c r="C165" t="s">
+        <v>56</v>
+      </c>
+      <c r="D165" t="s">
+        <v>20</v>
       </c>
       <c r="E165">
         <v>86</v>
@@ -9927,7 +9352,7 @@
         <v>6.15</v>
       </c>
       <c r="I165">
-        <v>4.36</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="J165">
         <v>9</v>
@@ -9939,10 +9364,10 @@
         <v>791</v>
       </c>
       <c r="M165">
-        <v>5.512010113780025</v>
+        <v>5.5120101137800246</v>
       </c>
       <c r="N165">
-        <v>0.7089430894308943</v>
+        <v>0.70894308943089435</v>
       </c>
       <c r="O165">
         <v>5</v>
@@ -9951,26 +9376,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>91f6bb75-d70a-417a-9215-75cf91538c3f</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>ST_PIONEIRA</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>218</v>
+      </c>
+      <c r="B166" t="s">
+        <v>17</v>
+      </c>
+      <c r="C166" t="s">
+        <v>56</v>
+      </c>
+      <c r="D166" t="s">
+        <v>22</v>
       </c>
       <c r="E166">
         <v>91</v>
@@ -9985,7 +9402,7 @@
         <v>5.43</v>
       </c>
       <c r="I166">
-        <v>4.06</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="J166">
         <v>8</v>
@@ -9997,10 +9414,10 @@
         <v>830</v>
       </c>
       <c r="M166">
-        <v>4.891566265060241</v>
+        <v>4.8915662650602414</v>
       </c>
       <c r="N166">
-        <v>0.7476979742173112</v>
+        <v>0.74769797421731121</v>
       </c>
       <c r="O166">
         <v>5</v>
@@ -10009,26 +9426,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>9db67654-2fed-4dd0-b73c-6e4a9b9c03f0</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>ST_PIONEIRA</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>219</v>
+      </c>
+      <c r="B167" t="s">
+        <v>17</v>
+      </c>
+      <c r="C167" t="s">
+        <v>56</v>
+      </c>
+      <c r="D167" t="s">
+        <v>24</v>
       </c>
       <c r="E167">
         <v>90</v>
@@ -10043,7 +9452,7 @@
         <v>3.29</v>
       </c>
       <c r="I167">
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="J167">
         <v>7</v>
@@ -10058,7 +9467,7 @@
         <v>3.996101364522417</v>
       </c>
       <c r="N167">
-        <v>0.6231003039513677</v>
+        <v>0.62310030395136773</v>
       </c>
       <c r="O167">
         <v>5</v>
@@ -10067,26 +9476,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>6cfef61f-d030-43be-aeaf-8e4982bf1ebf</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>G43</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>220</v>
+      </c>
+      <c r="B168" t="s">
+        <v>50</v>
+      </c>
+      <c r="C168" t="s">
+        <v>221</v>
+      </c>
+      <c r="D168" t="s">
+        <v>18</v>
       </c>
       <c r="E168">
         <v>54</v>
@@ -10101,7 +9502,7 @@
         <v>5.19</v>
       </c>
       <c r="I168">
-        <v>4.19</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="J168">
         <v>4</v>
@@ -10113,10 +9514,10 @@
         <v>821</v>
       </c>
       <c r="M168">
-        <v>5.10353227771011</v>
+        <v>5.1035322777101104</v>
       </c>
       <c r="N168">
-        <v>0.8073217726396917</v>
+        <v>0.80732177263969174</v>
       </c>
       <c r="O168">
         <v>5</v>
@@ -10125,26 +9526,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>a7adac21-f321-481b-99f0-3688f8b5d89a</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>G43</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>222</v>
+      </c>
+      <c r="B169" t="s">
+        <v>50</v>
+      </c>
+      <c r="C169" t="s">
+        <v>221</v>
+      </c>
+      <c r="D169" t="s">
+        <v>20</v>
       </c>
       <c r="E169">
         <v>57</v>
@@ -10159,7 +9552,7 @@
         <v>5.56</v>
       </c>
       <c r="I169">
-        <v>4.27</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="J169">
         <v>3</v>
@@ -10171,10 +9564,10 @@
         <v>796</v>
       </c>
       <c r="M169">
-        <v>5.364321608040201</v>
+        <v>5.3643216080402008</v>
       </c>
       <c r="N169">
-        <v>0.7679856115107914</v>
+        <v>0.76798561151079137</v>
       </c>
       <c r="O169">
         <v>5</v>
@@ -10183,26 +9576,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>79f43363-938c-4d3a-80e5-6bd665cdca36</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>G43</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>223</v>
+      </c>
+      <c r="B170" t="s">
+        <v>50</v>
+      </c>
+      <c r="C170" t="s">
+        <v>221</v>
+      </c>
+      <c r="D170" t="s">
+        <v>22</v>
       </c>
       <c r="E170">
         <v>65</v>
@@ -10232,7 +9617,7 @@
         <v>4.815409309791332</v>
       </c>
       <c r="N170">
-        <v>0.7444168734491314</v>
+        <v>0.74441687344913143</v>
       </c>
       <c r="O170">
         <v>5</v>
@@ -10241,26 +9626,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>5d6a82d3-73b0-47f2-8e1d-2608e9f50801</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>DOURADA</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>G43</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>224</v>
+      </c>
+      <c r="B171" t="s">
+        <v>50</v>
+      </c>
+      <c r="C171" t="s">
+        <v>221</v>
+      </c>
+      <c r="D171" t="s">
+        <v>24</v>
       </c>
       <c r="E171">
         <v>72</v>
@@ -10287,10 +9664,10 @@
         <v>359</v>
       </c>
       <c r="M171">
-        <v>6.49025069637883</v>
+        <v>6.4902506963788298</v>
       </c>
       <c r="N171">
-        <v>0.5587529976019185</v>
+        <v>0.55875299760191854</v>
       </c>
       <c r="O171">
         <v>5</v>
